--- a/网关与服务器协议_4.xlsx
+++ b/网关与服务器协议_4.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="162">
   <si>
     <t>设备类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -490,6 +491,146 @@
   </si>
   <si>
     <t>09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>django-&gt;web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web-&gt;django</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮询开始开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web-&gt;django</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01:开；0x02关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name:"xxx",depart:"xxx",level:"xxx",uid:"xxx"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid(old)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"xxx"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长不超过20个字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>django-&gt;web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x:x,y:x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送消息已读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +684,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -553,6 +694,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -725,6 +872,9 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -734,12 +884,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1046,23 +1194,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AS51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R49" sqref="R49"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K34" sqref="K34:AD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.36328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="27" width="4.625" style="1" customWidth="1"/>
-    <col min="28" max="46" width="4.625" style="2" customWidth="1"/>
+    <col min="5" max="27" width="4.6328125" style="1" customWidth="1"/>
+    <col min="28" max="46" width="4.6328125" style="2" customWidth="1"/>
     <col min="47" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="E2" s="7" t="s">
         <v>17</v>
       </c>
@@ -1187,7 +1335,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -1230,7 +1378,7 @@
       <c r="AR3" s="10"/>
       <c r="AS3" s="10"/>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -1273,7 +1421,7 @@
       <c r="AR4" s="10"/>
       <c r="AS4" s="10"/>
     </row>
-    <row r="5" spans="1:45" ht="36" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:45" ht="39" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="s">
         <v>117</v>
       </c>
@@ -1333,7 +1481,7 @@
       <c r="AR5" s="10"/>
       <c r="AS5" s="10"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B6" s="27"/>
       <c r="C6" s="28"/>
       <c r="D6" s="3" t="s">
@@ -1391,7 +1539,7 @@
       <c r="AR6" s="10"/>
       <c r="AS6" s="10"/>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B7" s="27"/>
       <c r="C7" s="28"/>
       <c r="D7" s="3" t="s">
@@ -1449,7 +1597,7 @@
       <c r="AR7" s="10"/>
       <c r="AS7" s="10"/>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -1492,7 +1640,7 @@
       <c r="AR8" s="10"/>
       <c r="AS8" s="10"/>
     </row>
-    <row r="10" spans="1:45" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:45" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>111</v>
       </c>
@@ -1560,7 +1708,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
       <c r="B11" s="27"/>
       <c r="C11" s="28"/>
@@ -1640,7 +1788,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:45" ht="24" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
@@ -1681,13 +1829,13 @@
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="36"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
     </row>
-    <row r="15" spans="1:45" ht="36" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:45" ht="48" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15" s="27" t="s">
         <v>90</v>
@@ -1715,7 +1863,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" s="27"/>
       <c r="C16" s="29"/>
@@ -1741,7 +1889,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" ht="24" x14ac:dyDescent="0.25">
       <c r="A17" s="36"/>
       <c r="B17" s="27"/>
       <c r="C17" s="29"/>
@@ -1764,7 +1912,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
@@ -1773,10 +1921,10 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="36"/>
     </row>
-    <row r="20" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="27" t="s">
         <v>114</v>
@@ -1801,21 +1949,21 @@
         <v>64</v>
       </c>
       <c r="J20" s="29"/>
-      <c r="K20" s="32" t="s">
+      <c r="K20" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="35"/>
       <c r="S20" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B21" s="27"/>
       <c r="C21" s="29"/>
       <c r="D21" s="3" t="s">
@@ -1867,7 +2015,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26" ht="24" x14ac:dyDescent="0.25">
       <c r="B22" s="27"/>
       <c r="C22" s="29"/>
       <c r="D22" s="3" t="s">
@@ -1889,7 +2037,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
       <c r="E23" s="6"/>
@@ -1897,7 +2045,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="27" t="s">
         <v>101</v>
       </c>
@@ -1921,25 +2069,25 @@
         <v>64</v>
       </c>
       <c r="J24" s="29"/>
-      <c r="K24" s="32" t="s">
+      <c r="K24" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="35"/>
       <c r="O24" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="P24" s="32" t="s">
+      <c r="P24" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="35"/>
       <c r="X24" s="8" t="s">
         <v>78</v>
       </c>
@@ -1947,7 +2095,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B25" s="27"/>
       <c r="C25" s="29"/>
       <c r="D25" s="3" t="s">
@@ -2014,7 +2162,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:26" ht="24" x14ac:dyDescent="0.25">
       <c r="B26" s="27"/>
       <c r="C26" s="29"/>
       <c r="D26" s="3" t="s">
@@ -2036,7 +2184,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C27" s="10"/>
       <c r="D27" s="11"/>
       <c r="E27" s="6"/>
@@ -2044,7 +2192,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
       <c r="E28" s="6"/>
@@ -2052,7 +2200,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:26" ht="36" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:26" ht="39" x14ac:dyDescent="0.25">
       <c r="B29" s="27" t="s">
         <v>102</v>
       </c>
@@ -2079,27 +2227,27 @@
       <c r="K29" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="L29" s="35" t="s">
+      <c r="L29" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="35"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
       <c r="Z29" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B30" s="27"/>
       <c r="C30" s="29"/>
       <c r="D30" s="3" t="s">
@@ -2172,7 +2320,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:26" ht="24" x14ac:dyDescent="0.25">
       <c r="B31" s="27"/>
       <c r="C31" s="29"/>
       <c r="D31" s="3" t="s">
@@ -2194,7 +2342,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="2:31" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:31" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="27" t="s">
         <v>91</v>
       </c>
@@ -2244,7 +2392,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B35" s="27"/>
       <c r="C35" s="29"/>
       <c r="D35" s="3" t="s">
@@ -2332,7 +2480,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:31" ht="24" x14ac:dyDescent="0.25">
       <c r="B36" s="27"/>
       <c r="C36" s="29"/>
       <c r="D36" s="3" t="s">
@@ -2354,7 +2502,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="2:31" ht="36" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:31" ht="39" x14ac:dyDescent="0.25">
       <c r="B39" s="27" t="s">
         <v>115</v>
       </c>
@@ -2382,7 +2530,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B40" s="27"/>
       <c r="C40" s="29"/>
       <c r="D40" s="3" t="s">
@@ -2410,7 +2558,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:31" ht="24" x14ac:dyDescent="0.25">
       <c r="B41" s="27"/>
       <c r="C41" s="29"/>
       <c r="D41" s="3" t="s">
@@ -2432,7 +2580,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="2:31" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:31" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="27" t="s">
         <v>116</v>
       </c>
@@ -2468,7 +2616,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B45" s="27"/>
       <c r="C45" s="29"/>
       <c r="D45" s="3" t="s">
@@ -2508,7 +2656,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:31" ht="24" x14ac:dyDescent="0.25">
       <c r="B46" s="27"/>
       <c r="C46" s="29"/>
       <c r="D46" s="3" t="s">
@@ -2530,7 +2678,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="36" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:11" ht="39" x14ac:dyDescent="0.25">
       <c r="B49" s="27" t="s">
         <v>124</v>
       </c>
@@ -2558,7 +2706,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="27"/>
       <c r="C50" s="29"/>
       <c r="D50" s="3" t="s">
@@ -2586,7 +2734,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:11" ht="24" x14ac:dyDescent="0.25">
       <c r="B51" s="27"/>
       <c r="C51" s="29"/>
       <c r="D51" s="3" t="s">
@@ -2626,6 +2774,11 @@
     <mergeCell ref="P24:W24"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="I29:J29"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="C39:C41"/>
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="K34:AD34"/>
     <mergeCell ref="C34:C36"/>
@@ -2633,11 +2786,6 @@
     <mergeCell ref="K24:N24"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="I24:J24"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="C39:C41"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C44:C46"/>
@@ -2662,13 +2810,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E3:AZ29"/>
   <sheetViews>
-    <sheetView topLeftCell="P8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="5:38" x14ac:dyDescent="0.15">
+    <row r="3" spans="5:38" x14ac:dyDescent="0.25">
       <c r="T3" s="29" t="s">
         <v>83</v>
       </c>
@@ -2701,7 +2849,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="5:38" x14ac:dyDescent="0.15">
+    <row r="4" spans="5:38" x14ac:dyDescent="0.25">
       <c r="T4" s="9" t="s">
         <v>57</v>
       </c>
@@ -2760,7 +2908,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="5:38" x14ac:dyDescent="0.15">
+    <row r="11" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E11" s="28" t="s">
         <v>54</v>
       </c>
@@ -2802,7 +2950,7 @@
       <c r="AI11" s="28"/>
       <c r="AJ11" s="28"/>
     </row>
-    <row r="12" spans="5:38" x14ac:dyDescent="0.15">
+    <row r="12" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E12" s="7" t="s">
         <v>57</v>
       </c>
@@ -2900,7 +3048,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="19:52" x14ac:dyDescent="0.15">
+    <row r="18" spans="19:52" x14ac:dyDescent="0.25">
       <c r="S18" s="9"/>
       <c r="T18" s="29"/>
       <c r="U18" s="29"/>
@@ -2912,23 +3060,23 @@
       <c r="AA18" s="29"/>
       <c r="AB18" s="29"/>
       <c r="AC18" s="9"/>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="35"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="35"/>
-      <c r="AH18" s="35"/>
-      <c r="AI18" s="35"/>
-      <c r="AJ18" s="35"/>
-      <c r="AK18" s="35"/>
-      <c r="AL18" s="35"/>
-      <c r="AM18" s="35"/>
-      <c r="AN18" s="35"/>
-      <c r="AO18" s="35"/>
-      <c r="AP18" s="35"/>
-      <c r="AQ18" s="35"/>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="32"/>
+      <c r="AF18" s="32"/>
+      <c r="AG18" s="32"/>
+      <c r="AH18" s="32"/>
+      <c r="AI18" s="32"/>
+      <c r="AJ18" s="32"/>
+      <c r="AK18" s="32"/>
+      <c r="AL18" s="32"/>
+      <c r="AM18" s="32"/>
+      <c r="AN18" s="32"/>
+      <c r="AO18" s="32"/>
+      <c r="AP18" s="32"/>
+      <c r="AQ18" s="32"/>
       <c r="AR18" s="8"/>
     </row>
-    <row r="19" spans="19:52" x14ac:dyDescent="0.15">
+    <row r="19" spans="19:52" x14ac:dyDescent="0.25">
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
@@ -2956,7 +3104,7 @@
       <c r="AQ19" s="9"/>
       <c r="AR19" s="9"/>
     </row>
-    <row r="24" spans="19:52" x14ac:dyDescent="0.15">
+    <row r="24" spans="19:52" x14ac:dyDescent="0.25">
       <c r="S24" s="29" t="s">
         <v>83</v>
       </c>
@@ -2988,27 +3136,27 @@
       <c r="AK24" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AL24" s="35" t="s">
+      <c r="AL24" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="AM24" s="35"/>
-      <c r="AN24" s="35"/>
-      <c r="AO24" s="35"/>
-      <c r="AP24" s="35"/>
-      <c r="AQ24" s="35"/>
-      <c r="AR24" s="35"/>
-      <c r="AS24" s="35"/>
-      <c r="AT24" s="35"/>
-      <c r="AU24" s="35"/>
-      <c r="AV24" s="35"/>
-      <c r="AW24" s="35"/>
-      <c r="AX24" s="35"/>
-      <c r="AY24" s="35"/>
+      <c r="AM24" s="32"/>
+      <c r="AN24" s="32"/>
+      <c r="AO24" s="32"/>
+      <c r="AP24" s="32"/>
+      <c r="AQ24" s="32"/>
+      <c r="AR24" s="32"/>
+      <c r="AS24" s="32"/>
+      <c r="AT24" s="32"/>
+      <c r="AU24" s="32"/>
+      <c r="AV24" s="32"/>
+      <c r="AW24" s="32"/>
+      <c r="AX24" s="32"/>
+      <c r="AY24" s="32"/>
       <c r="AZ24" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="19:52" x14ac:dyDescent="0.15">
+    <row r="25" spans="19:52" x14ac:dyDescent="0.25">
       <c r="S25" s="9" t="s">
         <v>57</v>
       </c>
@@ -3112,7 +3260,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="19:52" x14ac:dyDescent="0.15">
+    <row r="26" spans="19:52" x14ac:dyDescent="0.25">
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
@@ -3148,7 +3296,7 @@
       <c r="AY26" s="2"/>
       <c r="AZ26" s="2"/>
     </row>
-    <row r="27" spans="19:52" x14ac:dyDescent="0.15">
+    <row r="27" spans="19:52" x14ac:dyDescent="0.25">
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
@@ -3184,7 +3332,7 @@
       <c r="AY27" s="2"/>
       <c r="AZ27" s="2"/>
     </row>
-    <row r="28" spans="19:52" x14ac:dyDescent="0.15">
+    <row r="28" spans="19:52" x14ac:dyDescent="0.25">
       <c r="S28" s="29" t="s">
         <v>83</v>
       </c>
@@ -3216,27 +3364,27 @@
       <c r="AK28" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AL28" s="35" t="s">
+      <c r="AL28" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="AM28" s="35"/>
-      <c r="AN28" s="35"/>
-      <c r="AO28" s="35"/>
-      <c r="AP28" s="35"/>
-      <c r="AQ28" s="35"/>
-      <c r="AR28" s="35"/>
-      <c r="AS28" s="35"/>
-      <c r="AT28" s="35"/>
-      <c r="AU28" s="35"/>
-      <c r="AV28" s="35"/>
-      <c r="AW28" s="35"/>
-      <c r="AX28" s="35"/>
-      <c r="AY28" s="35"/>
+      <c r="AM28" s="32"/>
+      <c r="AN28" s="32"/>
+      <c r="AO28" s="32"/>
+      <c r="AP28" s="32"/>
+      <c r="AQ28" s="32"/>
+      <c r="AR28" s="32"/>
+      <c r="AS28" s="32"/>
+      <c r="AT28" s="32"/>
+      <c r="AU28" s="32"/>
+      <c r="AV28" s="32"/>
+      <c r="AW28" s="32"/>
+      <c r="AX28" s="32"/>
+      <c r="AY28" s="32"/>
       <c r="AZ28" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="19:52" x14ac:dyDescent="0.15">
+    <row r="29" spans="19:52" x14ac:dyDescent="0.25">
       <c r="S29" s="9" t="s">
         <v>57</v>
       </c>
@@ -3371,27 +3519,27 @@
   <dimension ref="E9:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:H15"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="9" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E9" s="32" t="s">
+    <row r="9" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E9" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
       <c r="M9" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E10" s="12" t="s">
         <v>57</v>
       </c>
@@ -3420,18 +3568,18 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E14" s="32" t="s">
+    <row r="14" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E14" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
       <c r="I14" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E15" s="9" t="s">
         <v>57</v>
       </c>
@@ -3457,4 +3605,258 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" t="s">
+        <v>154</v>
+      </c>
+      <c r="H24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27" t="s">
+        <v>147</v>
+      </c>
+      <c r="G27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/网关与服务器协议_4.xlsx
+++ b/网关与服务器协议_4.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -777,7 +778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -857,13 +858,26 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -875,19 +889,12 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -903,6 +910,95 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5121" name="AutoShape 1" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAA7EAAAOxCAYAAAAjIyBZAAAgAElEQVR4Xuz9b6ju2XUY9n+fe2W7ljwggmzSlM5QRF9ItLZ1z7k2rkM1L+q2atQ0pP8cQYmRmDdpWqelILUB/6ubOtTY6T+YiZAgeeGqThuaWMEugWb8Kkhzz5UMjQSNRdCUlmCLVrZqCdu65ymPOWd85uj+WWvf/eylc9dHb37xzNrfdfdn7a691+/cuXe3+R8BAgQIECBAgAABAgQIELghArsb8uv0yyRAgAABAgQIECBAgAABApsh1iEgQIAAAQIECBAgQIAAgRsjYIi9MaXyCyVAgAABAgQIECBAgAABQ6wzQIAAAQIECBAgQIAAAQI3RsAQe2NK5RdKgAABAgQIECBAgAABAoZYZ4AAAQIECBAgQIAAAQIEboyAIfbGlMovlAABAgQIECBAgAABAgQMsc4AAQIECBAgQIAAAQIECNwYAUPsjSmVXygBAgQIECBAgAABAgQIGGKdAQIECBBoLfCDP/iDz33ta1/7K9u2vb7b7f7mc8899/lXX33169dQdu95z3vesdvt/vitW7f+9LZtv7/f7//82dnZV1vj2TwBAgQIECgQMMQWoEtJgAABAt88Aqenp+/Z7/e/sm3bdx1+Vbvd7s/cu3fvE1d/hXfv3v2j+/3+f9zv9//ixT8/DLF/8v79+4d1j/3f6enpB/f7/ceeFDfy73e73Yfu3bv38ZG11hAgQIAAgZsqYIi9qZXz6yZAgACBKQInJyc/um3b4Sexh/99/vbt23/i05/+9D+6/vHT09Mf3u/3/8PlPz/81ParX/3qn/3c5z73/z3uF2KInVImHyFAgAABAm8IGGIdBgIECBBoK/C93/u9b799+/Yvbtv2QxcIP/fcc899+CG/nXi79tPYf7xt2688ePDgL332s5/9h4kh9uz27dsfePDgwf9z69atb3/w4MHP73a7f/Ow/vCT3d1u9/cv/t8/sNvt/vbF//t/vn379n90fn7+tdu3b/+RBw8e/MK2bSeHf+cnsW2Pro0TIECgtYAhtnX5bZ4AAQK9Be7evfsvnJ+fH35L8HOH/8718FuJ9/v94b95/cDTyNy6devF11577VcP37j2k9hPbdv2/rOzsy+dnJy8ddu2j17murrm7t277z0/P3/14tdwGFpfOvz3tycnJ+/Ytu2T27Z9vyH2aSpkLQECBAjcZAFD7E2unl87AQIECDyNwO709PQ/2+/3P33xkf/t1q1bP3J+fv4zRxxin+bX+w1r/SR2KqePESBAgMANETDE3pBC+WUSIECAwFyB97znPX/s9u3bf2u/359efPkvXPxk9I2fjo5mfMxPYkc/+dB1htipnD5GgAABAjdEwBB7Qwrll0mAAAECcwUe8gc1feg7vuM7/vpv/dZvfe9b3vKWtz9Ntq9//eu/9pnPfOY3D9+4+G3Dh986/Mj/7ff7N/4b2Iug/2bbtv888Gv4qr/mJ6AkhAABAgSeKQFD7DNVTpshQIAAgYjAu9/97u9461vf+tcu/vvXP1hy9aea7373u7/1bW972+n5+fmP7Ha7X793795/dfizl65/+8UXX/wnvvKVr/z8fr8//KFLf+t3fud3zq7+acUnJyeH35r84civaTTGT2NH5awjQIAAgZsqYIi9qZXz6yZAgACBYYFrf6DTm4bYF1988S1f+cpXfm7btv/gIsHfffDgwb/z2c9+9svXE373d3/3d33rt37r37nyW5L/3/Pz83/5M5/5zL1DrCF2uEQWEiBAgACBRwoYYh0OAgQIEGglcDGk/uy2bYe/H/aN/139iebp6em/td/v/8bFv/yN3W73r967d+8z16FOTk4Of0rw3734040PP839+w8ePPg3Ln8r8enp6T+32+3+6JOA9/v9P7/f7w+D8x/8b7/ff+L27dsfe9K6w7/f7XZfeNjfaxtZK4YAAQIECNxEAUPsTayaXzMBAgQIDAucnJzc2bbtl7Zt+2OPGmK/7/u+75958ODB39m27V0XMX/h7Ozsv76e9PT09N/b7/d//co//y/Pzs7+4vXfenznzp137Xa7X9627YXhX/ibF35xv9+/7/79+5+f9D2fIUCAAAECN0bAEHtjSuUXSoAAAQJPK/Con8Ievnv1J7HX/w7Xbdve+LtaL38ND/ltx79/69atH7r8+2Gv/loNsU9bOesJECBAgMAfChhinQYCBAgQaCNwcnLyT27bdvgJ63u2bfvH27a97cpvBf7QvXv3Pn6JcXJycvjtxn/l4v/+P7Zt+9fOzs6+cPnvf+AHfuCP/N7v/d7f3rbtBy+G4HsXv5X4/74O+pAh9mdv3br1v2bgz8/P/5Vt2/6TizV+EpvBE0uAAAECz5SAIfaZKqfNECBAgMDjBK7+hHW/3/8Xu93uX9q27fDftb7pJ7GH//sh/73rv33v3r3/6fL7p6en79nv97+ybdt3Xfyzn3vuuec+/Oqrr349MMQ+baEMsU8raD0BAgQI3FgBQ+yNLZ1fOAECBAiMCFz8hPXPHf76nFu3bv38o4bY97znPd95+GtzDn+H60We//a55577jy+H1NPT0w/u9/urf/jS+8/Ozg4/5f2G/13/Sexut/ul/X7/DX9Q1OP2s9vtDkPzv34RY4gdKb41BAgQIPBMCBhin4ky2gQBAgQIRAVOTk7++LZtf+rWrVs/e35+/r88aog9/F2x3/7t3/7fbdv20uHbu93ujd8ufP3fbdv22a9//evv/7Vf+7X/KzjEvum3Lkd+7deGZkNsBE0MAQIECDyTAobYZ7KsNkWAAAECjxK4+O9i37pt229t2/bJRw2xh/XXBsc3/uCm7/me7/mn3vKWtxzWfu9Fno9+7Wtf+/Of+9znfi8yxE6ojiF2AqJPECBAgMDNFDDE3sy6+VUTIECAwFMKnJycvCMwxL7pv3vd7/d/8f79+3/p7t277z0/Pz/8/bDfcvhl7Ha7N/33std/aX478VMWy3ICBAgQIHBFwBDrOBAgQIBAS4HIEHv9v4vd7XZ/89u+7dt+5Hd/93f/w/1+/9MXcJ+/ffv2n/j0pz/9jx4F+ZAh1m8nbnnqbJoAAQIEZggYYmco+gYBAgQI3DiByBB78XfB/vR+v//W27dv//W3ve1t//uXv/zl77h9+/Yvbtv2Q4dN7/f7j//2b//2n/v1X//1340OsROw/HbiCYg+QYAAAQI3U8AQezPr5ldNgAABAk8pEBliH5biIX/1zhN/quq3Ez9lsSwnQIAAAQJXBAyxjgMBAgQItBR42BC72+2+cH5+/uoEkDf9pNRvJ54g6hMECBAgQOBCwBDrKBAgQIBAS4FjD7Hbtv3727b999u2vXBkYL+1+MjAPk+AAAEC31wChthvrnr41RAgQIDAIgFD7CJoaQgQIECAwGQBQ+xkUJ8jQIAAgZsh8LAh9sGDB7/0lre85Xuedgf7/f7r3/It3/IPf//3f/+f3e12b3na7z1u/SHX7du373/qU5/67WPm8W0CBAgQIPDNImCI/WaphF8HAQIECCwVGP2DnZb+IiUjQIAAAQIEvkHAEOtQECBAgAABAgQIECBAgMCNETDE3phS+YUSIECAAAECBAgQIECAgCHWGSBAgAABAgQIECBAgACBGyNgiL0xpfILJUCAAAECBAgQIECAAAFDrDNAgAABAgQIECBAgAABAjdGwBB7Y0rlF0qAAAECBAgQIECAAAEChlhngAABAgQIECBAgAABAgRujIAh9saUyi+UAAECBAgQIECAAAECBAyxzgABAgQIECBAgAABAgQI3BgBQ+yNKZVfKAECBAgQIECAAAECBAgYYp0BAgQIECBAgAABAgQIELgxAobYG1Mqv1ACBAgQIECAAAECBAgQMMQ6AwQIECBAgAABAgQIECBwYwQMsTemVH6hBAgQIECAAAECBAgQIGCIdQYIECBAgAABAgQIECBA4MYIGGJvTKn8QgkQIECAAAECBAgQIEDAEOsMECBAgAABAgQIECBAgMCNETDE3phS+YUSIECAAAECBAgQIECAgCHWGSBAgAABAgQIECBAgACBGyNgiL0xpfILJUCAAAECBAgQIECAAAFDrDNAgAABAgQIECBAgAABAjdGwBB7Y0rlF0qAAAECBAgQIECAAAEChlhngAABAgQIECBAgAABAgRujIAh9saUyi+UAAECBAgQIECAAAECBAyxzgABAgQIECBAgAABAgQI3BgBQ+yNKZVfKAECBAgQIECAAAECBAgYYp0BAgQIECBAgAABAgQIELgxAobYG1Mqv1ACBAgQIECAAAECBAgQMMQ6AwQIECBAgAABAgQIECBwYwQMsTemVH6hBAgQIECAAAECBAgQIGCIdQYIECBAgAABAgQIECBA4MYIGGJvTKn8QgkQIECAAAECBAgQIEDAEOsMECBAgAABAgQIECBAgMCNETDE3phS+YUSIECAAAECBAgQIECAgCHWGSBAgAABAgQIECBAgACBGyNgiL0xpfILJUCAAAECBAgQIECAAAFDrDNAgAABAgQIECBAgAABAjdGwBB7Y0rlF0qAAAECBAgQIECAAAEChlhngAABAgQIECBAgAABAgRujIAh9saUyi+UAAECBAgQIECAAAECBAyxzgABAgQIECBAgAABAgQI3BgBQ+yNKZVfKAECBAgQIECAAAECBAgYYp0BAgQIECBAgAABAgQIELgxAobYG1Mqv1ACBAgQIECAAAECBAgQMMQ6AwQIECBAgAABAgQIECBwYwQMsTemVH6hBAgQIECAAAECBAgQIGCIdQYIECBAgAABAgQIECBA4MYIPNND7MnJyVu3bfvotm3/59nZ2UceVpU7d+68a7fb/fK2bS9c/PtPbdv2/rOzsy9djz85OfmZbds+fPnPd7vdh+7du/fxG1Ntv1ACBAgQIECAAAECBAjccIFncoi9Mrx+4KI+f/lhQ+zlALvb7X7qMIxeWffO64PsxQD74uU/v3v37nvPz89fNcje8P8vwC+fAAECBAgQIECAAIEbJfDMDbEXw+Vf2+/37ztU4uKnrJ+4PsReGVgPYS+dnZ199fD/uPKT2TfWXA6st27devG111771csKXwy2P3zIdf/+/c/fqMr7xRIgQIAAAQIECBAgQOAGCjxzQ+zVGjxsIL3899d/CntlML38Lchv/DT2+k9hL2P9NPYGnni/ZAIECBAgQIAAAQIEbrRA2yH29PT0g/v9/sce9lPUqz9h3e12v7lt2ye3bXv1+k9zHzck3+hT4RdPgAABAgQIECBAgACBb1KBtkPs434r8MWA+7HDbx9+8ODBbzzmtyS/42LA/cLV35IcqfXp6emf2e/3/+7Z2dmfisSLIUCAAAECBAgQIECAAIFt6z7EvvEHNV09DA8bYi//8KercScnJ48dYk9OTvaPOmTPP//8l19//fW3v/LKK84hAQIECBAgQIAAAQI3T+DVbdtePD09faZnqm/GsjzT4I/77b6P+u9cD0WaNcTeuXPnJx5V9BdeeOFHD0Psyy+//JPfjAfDr+lmC+x2ux8//Bb4/X7/xh9EdrN35Ff/zSDgXH0zVOHZ/DXsdrv3Hh6C+/3enfhslrh0V3pXKf8znfyydxli15e5+xD70D9Z+Op/L3soSeC3E3/Dfy/7pFK+9NJLf+/+/fsvnp2dPdM1eJKDf38cgXv37u0Pj8G7d+8+8v+PlONk9tVnWcC5eparW7u311577ScOg4aHYG0dntXsetezWtn6felddTV4pgeox/0k9nF/sNPVf/e4P9jpym8nNsTWnWGZHyLgwnYsjiHgXB1D1TcPAh6CzsExBfSuY+r2/rbeVVf/tkPsY/7u18u/YudQlZcuSvPRi//fN/4+2cP//ahvRMrpJ7ERJTGjAi7sUTnrHifgXDkfxxLwEDyWrO8eBPQu5+BYAnrXsWSf/N22Q+yjfor6sL8/9lE/tX3cf1f7JHpD7JOE/PunEXBhP42etY8ScK6cjWMJeAgeS9Z3DbHOwDEF9K5j6j7+222H2APL5U9Sd7vdh+7du/fxk5OTN/0U9uzs7KuHuCv//J3btr3/7OzsS0/zU9jDNw2xdYe+Q2bDRocqr9+jc7XevEtGD8Eula7Zp95V494hq95VV+XWQ+zVQfZKCf7y2dnZR66X5Mog+4GLf/fF/X7/vvv3739+pHyG2BE1a6ICLuyolLiMgHOV0RKbEfAQzGiJzQroXVkx8VEBvSsqNT/umR5i53PN+6Ihdp6lL32jgAvbqTiGgHN1DFXfPAh4CDoHxxTQu46p2/vbeldd/Q2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPGeFEnMAACAASURBVAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddodsPsXfu3HnXbrf75W3bXrgowy9s2/bS2dnZV6+X5eTk5Ge2bfvw5T/f7XYfunfv3sdHymeIHVGzJirgwo5KicsIOFcZLbEZAQ/BjJbYrIDelRUTHxXQu6JS8+NaD7F379597/n5+auXw+jJyclbt2376LZt79y27f1nZ2dfuiS/GGBfvPzn19dmS2OIzYqJzwi4sDNaYqMCzlVUSlxWwEMwKyY+I6B3ZbTEZgT0rozW3Ni2Q+yVgfUg+sZPXi9/Mrvb7X7q8qeslwPrrVu3Xnzttdd+9dpg+8P7/f599+/f/3ymNIbYjJbYrIALOysmPiLgXEWUxIwIeAiOqFkTFdC7olLisgJ6V1ZsXnznIfYd27Z9ctu2L1wdYk9OTi7/+atnZ2cfOVBf/ynsJf/T/DTWEDvvEPvSNwq4sJ2KYwg4V8dQ9c2DgIegc3BMAb3rmLq9v6131dW/8xD70N86fP0nsQ8bai/LdeW/p/3E5cAbLaUhNiolbkTAhT2iZs2TBJyrJwn596MCHoKjctZFBPSuiJKYEQG9a0Rtzpq2Q+yB7/oQ+rDfYvy4QfXKgPumn+ZGSmOIjSiJGRVwYY/KWfc4AefK+TiWgIfgsWR99yCgdzkHxxLQu44l++Tvth5irw2yD/3TiR/238hesj5piD05Odk/qgTPP//8l19//fW3v/LKK0+ukggCBAgQIECAAAECBL7ZBF7dtu3F09PT9jPV6sK0Br/8K3Ou/oFN1//Z0wyxd+7c+YlHFfSFF1740cMQ+/LLL//k6qLL9+wL7Ha7H9+27dX9fv/GH0T27O/aDo8t4FwdW7jv93e73XsPD8H9fu9O7HsMjrZzvetotO0/fNm7DLHrj0LbIfZRfyjT9b9mZ7/ff+fF3yP7Df/d6+P+e9knldJvJ36SkH//NAJ+69TT6Fn7KAHnytk4loDfkncsWd89COhdzsGxBPSuY8k++btth9iLn7g+9K/HOT09/eB+v//Y4Se05+fn/+DiTzF+408rvmQ1xD75gImoEXBh17g/61mdq2e9wnX78xCss++QWe/qUOWaPepdNe6HrIbYh/wdr9eG2Ne2bfvoRYne+PtkD//3o/7+2Eg5/SQ2oiRmVMCFPSpn3eMEnCvn41gCHoLHkvVdP4l1Bo4poHcdU/fx3247xEZ/O/HZ2dmXLobaH9tfG3gf9ffHRsppiI0oiRkVMGyMyllniHUGKgQ8BCvU++R0J/ap9eqd6l2rxf8wX9sh9kDwsN9SfPlT2N1u96F79+59/CLuG/5O2af5Kezhm4bYukPfIbMLu0OV1+/RuVpv3iWjh2CXStfsU++qce+QVe+qq3LrIfbAfjm0XinBF6//xPXaIPuBi9iHxkVLaYiNSokbEXBhj6hZ8yQB5+pJQv79qICH4KicdREBvSuiJGZEQO8aUZuzpv0QO4cx/xVDbN7MiriACztuJTIu4FzFrUTmBDwEc16icwJ6V85LdFxA74pbzY40xM4WDX7PEBuEEjYk4MIeYrPoCQLOlSNyLAEPwWPJ+u5BQO9yDo4loHcdS/bJ3zXEPtnoKBGG2KOw+uiFgAvbUTiGgHN1DFXfPAh4CDoHxxTQu46p2/vbeldd/Q2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi/7XCDwAAIABJREFU+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsdu2nZycvGPbtk9u2/b9F6X4hW3bXjo7O/vq1dKcnJz8zLZtH778Z7vd7kP37t37+Ej5DLEjatZEBVzYUSlxGQHnKqMlNiPgIZjREpsV0LuyYuKjAnpXVGp+XPsh9u7du+89Pz9/9epAevhn+/3+nVcH1IsB9sVt295/dnb2pYety5THEJvREpsVcGFnxcRHBJyriJKYEQEPwRE1a6ICeldUSlxWQO/Kis2Lbz3E3rlz51273e6Xb9269Wdfe+21X30U6+XAeuvWrRevxl0Mtj+83+/fd//+/c9nymKIzWiJzQq4sLNi4iMCzlVEScyIgIfgiJo1UQG9KyolLiugd2XF5sW3HmIvhtB/+mG/dfgq8fWfwl7+u6f5aawhdt4h9qVvFHBhOxXHEHCujqHqmwcBD0Hn4JgCetcxdXt/W++qq3/bIfbyv4Pd7XZ/9XH/XeuV/1721bOzs49cLdXlT3K3bfvE9X/3pJIaYp8k5N8/jYAL+2n0rH2UgHPlbBxLwEPwWLK+exDQu5yDYwnoXceSffJ32w6xV3+L8Pn5+fse9Qc2PW5QvTLgfuFJP829XgpD7JMPp4hxARf2uJ2VjxZwrpyOYwl4CB5L1ncNsc7AMQX0rmPqPv7b7YfYA8/VP9Tp9PT0g/v9/mOX/+xyiN3tdj91/Se2TxpiT05O9o/if/7557/8+uuvv/2VV16pq77MBAgQIECAAAECBAiMCry6bduLp6enbWeqUbinXdcW/HJY3bbtTX+dzsnJyVu3bfvotm3vPPxJxPv9/jsPf/jTyBB7586dn3hUgV544YUfPQyxL7/88k8+bRGtJ3BdYLfb/fi2ba/u9/tH/oFl1AhkBZyrrJj4qMBut3vv4SG43+/diVE0cWEBvStMJTApcNm7DLFJuAnh7YfYh/1dr5cD7uFPI37w4MFvHIbYh/13r4/772WfVBu/nfhJQv790wj4bZ9Po2ftowScK2fjWAJ+S96xZH33IKB3OQfHEtC7jiX75O+2HWIf9ycLXx1iz8/P/8G2bZ88/FTr+h/eZIh98gETUSPgwq5xf9azOlfPeoXr9uchWGffIbPe1aHKNXvUu2rcD1nbDrGP+wObLobYHzv8/a+73e6LF7+9+OD10tnZ2Vcvy/Wovz82Uk4/iY0oiRkVcGGPyln3OAHnyvk4loCH4LFkfddPYp2BYwroXcfUffy32w6x1//b17Ozsy8dqK788zeG1qtD7f379z9/Sfqovz82Uk5DbERJzKiAYWNUzjpDrDNQIeAhWKHeJ6c7sU+tV+9U71ot/of52g6xB4KH/TT2YQPrwwbep/kp7B9Mxy+99Pfu37//4tnZWesa1B39ZzuzC/vZrm/V7pyrKvlnP6+H4LNf48od6l2V+s92br2rrr7tB6gr/13r91+U4VOHP5X48iezV37qevmnFn/g4p998fDbja/+ZDZTRkNsRktsVsCFnRUTHxFwriJKYkYEPARH1KyJCuhdUSlxWQG9Kys2L779EDuPMvclQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsRe0bx79+57z8/PX9227Re2bXvp7Ozsq1exT05Ofmbbtg9f/rPdbvehe/fufXykIIbYETVrogIu7KiUuIyAc5XREpsR8BDMaInNCuhdWTHxUQG9Kyo1P84Qe2F6cnLyjm3bPrlt2/c/bIi9GGBf3Lbt/WdnZ1+6HHhHB1lD7PzD7It/KODCdhqOIeBcHUPVNw8CHoLOwTEF9K5j6vb+tt5VV39D7IX96enpB/f7/ccu/s83/ST2cmC9devWi6+99tpstPWtAAAgAElEQVSvXpbrYrD94f1+/7779+9/PlNGQ2xGS2xWwIWdFRMfEXCuIkpiRgQ8BEfUrIkK6F1RKXFZAb0rKzYv3hC7bdudO3fetdvtfnm/3//V3W73J7dt+8LV3058/aewl/xP89NYQ+y8Q+xL3yjgwnYqjiHgXB1D1TcPAh6CzsExBfSuY+r2/rbeVVf/9kPsycnJW7dt++hFCf7Tbdt+8eoQe+W3Gb96dnb2kauluhx+t237xPV/96SSGmKfJOTfP42AC/tp9Kx9lIBz5WwcS8BD8FiyvnsQ0Lucg2MJ6F3Hkn3yd9sPsRe/jfjHDr8leLfb/ebFfxf7xk9iHzeoXhlw3/ST2yezb5shNqIkZlTAhT0qZ93jBJwr5+NYAh6Cx5L1XUOsM3BMAb3rmLqP/3brIfZyQN3tdj91+FOGHzaUXo+5yvmkIfbk5GT/KP7nn3/+y6+//vrbX3nllbrqy0yAAAECBAgQIECAwKjA4W81efH09LT1TDWK9zTr2oI/bACdPcTeuXPnJx5VnBdeeOFHD0Psyy+//JNPU0BrCTxMYLfb/fi2ba/u9/s3/iAyUgSeVsC5elpB6x8lsNvt3nt4CO73e3eiYzJdQO+aTuqDFwKXvcsQu/5ItBxir/x3sO+8/CtzDvSPG2If9t+9Pu6/l31SKf124icJ+fdPI+C3fT6NnrWPEnCunI1jCfgteceS9d2DgN7lHBxLQO86luyTv9tyiL38U4WfzLP9wq1btz5yfn7+Nw4/1br+hzcZYgOCQkoEXNgl7M98UufqmS9x2QY9BMvoWyTWu1qUuWSTelcJ+x8kbTnEPor7Eb/F+OqfXvzS2dnZVy/XP+rvj42U009iI0piRgVc2KNy1j1OwLlyPo4l4CF4LFnfPQjoXc7BsQT0rmPJPvm7htgrRo/6g5qu/gnG9+/f//zlkkf9/bFPZvenE0eMxIwLuLDH7ax8tIBz5XQcS8BD8FiyvmuIdQaOKaB3HVP38d82xAaG2If9N7RP81PYQ0o/ia079B0yGzY6VHn9Hp2r9eZdMnoIdql0zT71rhr3Dln1rroqG2IDQ+wh5Mog+4GLJV88/N2yV38ymymjITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3vX/t3fHPJJlVZ7AXxReC2MMFq3B0iNhofUqq4VJu0h8AISzEggbaZ3GYmawGmk/ACwapHEQHwAJa6XGWGNVnemt2kIaWIwRamMd8KgYJZNRREVnxrv35Xv3RNb/ZyE6brwT53euzr0nMyuzV2y99YbY9Sy7nmSI7eKyuFPAgd0JZnmTgH3VxGTRAgEXwQVo3tIsoHc1U1nYKaB3dYKtuNwQuyJmz6MMsT1a1vYKOLB7xaxvEbCvWpSsWSLgIrhEzXtaBfSuVinregX0rl6x9dYbYtez7HqSIbaLy+JOAQd2J5jlTQL2VROTRQsEXAQXoHlLs4De1UxlYaeA3tUJtuJyQ+yKmD2PMsT2aFnbK+DA7hWzvkXAvmpRsmaJgIvgEjXvaRXQu1qlrOsV0Lt6xdZbb4hdz7LrSYbYLi6LOwUc2J1gljcJ2FdNTBYtEHARXIDmLc0CelczlYWdAnpXJ9iKyw2xK2L2PMoQ26Nlba+AA7tXzPoWAfuqRcmaJQIugkvUvKdVQO9qlbKuV0Dv6hVbb70hdj3LricZYru4LO4UcGB3glneJGBfNTFZtEDARXABmrc0C+hdzVQWdgroXZ1gKy43xK6I2fMoQ2yPlrW9Ag7sXjHrWwTsqxYla5YIuAguUfOeVgG9q1XKul4BvatXbL31htj1LLueZIjt4rK4U8CB3QlmeZOAfdXEZNECARfBBWje0iygdzVTWdgpoHd1gq243BC7ImbPowyxPVrW9go4sHvFrG8RsK9alKxZIuAiuETNe1oF9K5WKet6BfSuXrH11hti17PsepIhtovL4k4BB3YnmOVNAvZVE5NFCwRcBBegeUuzgN7VTGVhp4De1Qm24nJD7IqYPY8yxPZoWdsr4MDuFbO+RcC+alGyZomAi+ASNe9pFdC7WqWs6xXQu3rF1ltviF3PsutJhtguLos7BRzYnWCWNwnYV01MFi0QcBFcgOYtzQJ6VzOVhZ0Celcn2IrLDbErYvY8yhDbo2Vtr4ADu1fM+hYB+6pFyZolAi6CS9S8p1VA72qVsq5XQO/qFVtvvSF2PcuuJxliu7gs7hRwYHeCWd4kYF81MVm0QMBFcAGatzQL6F3NVBZ2CuhdnWArLjfErojZ8yhDbI+Wtb0CDuxeMetbBOyrFiVrlgi4CC5R855WAb2rVcq6XgG9q1dsvfWG2PUsu55kiO3isrhTwIHdCWZ5k4B91cRk0QIBF8EFaN7SLKB3NVNZ2Cmgd3WCrbjcELsiZs+jDLE9Wtb2Cjiwe8WsbxGwr1qUrFki4CK4RM17WgX0rlYp63oF9K5esfXWG2LXs+x6kiG2i8viTgEHdieY5U0C9lUTk0ULBFwEF6B5S7OA3tVMZWGngN7VCbbickPsipg9jzLE9mhZ2yvgwO4Vs75FwL5qUbJmiYCL4BI172kV0LtapazrFdC7esXWW2+IXc+y60mG2C4uizsFHNidYJY3CdhXTUwWLRBwEVyA5i3NAnpXM5WFnQJ6VyfYissNsSti9jzKENujZW2vgAO7V8z6FgH7qkXJmiUCLoJL1LynVUDvapWyrldA7+oVW2+9IXY9y64nGWK7uCzuFHBgd4JZ3iRgXzUxWbRAwEVwAZq3NAvoXc1UFnYK6F2dYCsuN8SuiNnzKENsj5a1vQIO7F4x61sE7KsWJWuWCLgILlHznlYBvatVyrpeAb2rV2y99YbY9Sy7nmSI7eKyuFPAgd0JZnmTgH3VxGTRAgEXwQVo3tIsoHc1U1nYKaB3dYKtuNwQuyJmz6MMsT1a1vYKOLB7xaxvEbCvWpSsWSLgIrhEzXtaBfSuVinregX0rl6x9dYbYtez7HqSIbaLy+JOAQd2J5jlTQL2VROTRQsEXAQXoHlLs4De1UxlYaeA3tUJtuJyQ+yKmD2PMsT2aFnbK+DA7hWzvkXAvmpRsmaJgIvgEjXvaRXQu1qlrOsV0Lt6xdZbb4hdz7LrSYbYLi6LOwUc2J1gljcJ2FdNTBYtEHARXIDmLc0CelczlYWdAnpXJ9iKyw2xK2L2PMoQ26Nlba+AA7tXzPoWAfuqRcmaJQIugkvUvKdVQO9qlbKuV0Dv6hVbb70hdj3LricZYru4LO4UcGB3glneJGBfNTFZtEDARXABmrc0C+hdzVQWdgroXZ1gKy43xK6I2fMoQ2yPlrW9Ag7sXjHrWwTsqxYla5YIuAguUfOeVgG9q1XKul4BvatXbL31htj1LLueZIjt4rK4U8CB3QlmeZOAfdXEZNECARfBBWje0iygdzVTWdgpoHd1gq243BC7ImbPowyxPVrW9go4sHvFrG8RsK9alKxZIuAiuETNe1oF9K5WKet6BfSuXrH11hti17PsepIhtovL4k4BB3YnmOVNAvZVE5NFCwRcBBegeUuzgN7VTGVhp4De1Qm24vLoIfbq6uoL0zT9apqmrx2Z/mKapu9dX1//+dT56urqw2maPjj8991u992PP/7450vqYYhdouY9rQIO7FYp63oE7KseLWt7BFwEe7Ss7RXQu3rFrG8V0LtapdZfFzvEXl1dvTNN0892u93/OgyiR0Ptf97v99+4ubn55EB+N8C+P03TN6+vrz997733vv7q1auPlg6yhtj1N7Mn/k3AgW03bCFgX22h6pm3Ai6C9sGWAnrXlrrZz9a76uqfPsS+czuQHvM/f/78q7vd7tfTNP3y+vr6B7evHQbWZ8+evf/y5cvfnAy23zodeFvKaYhtUbJmqYADe6mc950TsK/sj60EXAS3kvXcWwG9yz7YSkDv2kp2/rmxQ+xDNEffjf3oMMSefhf28N7HfDfWEDu/Oa1YLuDAXm7nnQ8L2Fd2x1YCLoJbyXquIdYe2FJA79pS9/yzDbEnPqdD7H1D7eEt933XtrWUhthWKeuWCBg2lqh5z5yAfTUn5PWlAi6CS+W8r0VA72pRsmaJgN61RG2d9xhiTxxPv7t6blA9GnB/+9Avg3qoTIbYdTawp9wv4MC2M7YQsK+2UPXMWwEXQftgSwG9a0vd7GfrXXX1N8Qe2R8NrP92+AVOh/+22+1+dPqbiOeG2Kurq/1Dpf3yl7/8/3//+9//3U9/+tO66otMgAABAgQIECBAgMBSgY+maXr/xYsXZqqlggvfB/wO7vAd2Nv/e/wLnB4zxD5//vwfH6rLu++++/3bIfYnP/nJPy2snbcReFBgt9v9wzRNH+33+9e/iAwXgccK2FePFfT+hwR2u93Xby+C+/3emWibrC6gd61O6oF3AofeZYgdvyUMsdM0Hf3919+d/qbhxh8nfv1LoFpL6MeJW6WsWyLgR6eWqHnPnIB9NSfk9aUCfiRvqZz3tQjoXS1K1iwR0LuWqK3znugh9vC3Yqdp+vY0Tb+479+1nvvFTudemyuPIXZOyOuPEXBgP+zaR8IAACAASURBVEbPex8SsK/sja0EXAS3kvXcWwG9yz7YSkDv2kp2/rnpQ+yH0zR9ME3Tjw9/TueU7GjQvX3pe9fX138+rHno78fOs0+TIbZFyZqlAg7spXLed07AvrI/thJwEdxK1nMNsfbAlgJ615a6558dO8T2/HmcFy9efGe/3//w9EeNH/r7sS3lNMS2KFmzVMCwsVTO+wyx9kCFgItghXpOTGdiTq1HZ6p3jRb/W7zYIbbnu6hH3439yuG3Fve8/77yGmLrNn1CZAd2QpXH52hfjTdPiegimFLpmjz1rhr3hKh6V12VY4fYu++u/vMZ+jd+ydPJv5+9fdtnfglUTxkNsT1a1vYKOLB7xaxvEbCvWpSsWSLgIrhEzXtaBfSuVinregX0rl6x9dbHDrHrES57kiF2mZt3tQk4sNucrOoTsK/6vKxuF3ARbLeysl9A7+o38442Ab2rzWmLVYbYLVQbnmmIbUCyZLGAA3sxnTeeEbCvbI+tBFwEt5L13FsBvcs+2EpA79pKdv65hth5o01WGGI3YfXQOwEHtq2whYB9tYWqZ94KuAjaB1sK6F1b6mY/W++qq78htsjeEFsEHxLWgR1S6MFp2leDwYPCuQgGFbsgVb2rAD0kpN5VV2hDbJG9IbYIPiSsAzuk0IPTtK8GgweFcxEMKnZBqnpXAXpISL2rrtCG2CJ7Q2wRfEhYB3ZIoQenaV8NBg8K5yIYVOyCVPWuAvSQkHpXXaENsUX2htgi+JCwDuyQQg9O074aDB4UzkUwqNgFqepdBeghIfWuukIbYovsDbFF8CFhHdghhR6cpn01GDwonItgULELUtW7CtBDQupddYU2xBbZG2KL4EPCOrBDCj04TftqMHhQOBfBoGIXpKp3FaCHhNS76gptiC2yN8QWwYeEdWCHFHpwmvbVYPCgcC6CQcUuSFXvKkAPCal31RXaEFtkb4gtgg8J68AOKfTgNO2rweBB4VwEg4pdkKreVYAeElLvqiu0IbbI3hBbBB8S1oEdUujBadpXg8GDwrkIBhW7IFW9qwA9JKTeVVdoQ2yRvSG2CD4krAM7pNCD07SvBoMHhXMRDCp2Qap6VwF6SEi9q67Qhtgie0NsEXxIWAd2SKEHp2lfDQYPCuciGFTsglT1rgL0kJB6V12hDbFF9obYIviQsA7skEIPTtO+GgweFM5FMKjYBanqXQXoISH1rrpCG2KL7A2xRfAhYR3YIYUenKZ9NRg8KJyLYFCxC1LVuwrQQ0LqXXWFNsQW2Rtii+BDwjqwQwo9OE37ajB4UDgXwaBiF6SqdxWgh4TUu+oKbYgtsjfEFsGHhHVghxR6cJr21WDwoHAugkHFLkhV7ypADwmpd9UV2hBbZG+ILYIPCevADin04DTtq8HgQeFcBIOKXZCq3lWAHhJS76ortCG2yN4QWwQfEtaBHVLowWnaV4PBg8K5CAYVuyBVvasAPSSk3lVXaENskb0htgg+JKwDO6TQg9O0rwaDB4VzEQwqdkGqelcBekhIvauu0IbYIntDbBF8SFgHdkihB6dpXw0GDwrnIhhU7IJU9a4C9JCQelddoQ2xRfaG2CL4kLAO7JBCD07TvhoMHhTORTCo2AWp6l0F6CEh9a66Qhtii+wNsUXwIWEd2CGFHpymfTUYPCici2BQsQtS1bsK0ENC6l11hTbEFtkbYovgQ8I6sEMKPThN+2oweFA4F8GgYhekqncVoIeE1LvqCm2ILbI3xBbBh4R1YIcUenCa9tVg8KBwLoJBxS5IVe8qQA8JqXfVFdoQW2RviC2CDwnrwA4p9OA07avB4EHhXASDil2Qqt5VgB4SUu+qK7QhtsjeEFsEHxLWgR1S6MFp2leDwYPCuQgGFbsgVb2rAD0kpN5VV2hDbJG9IbYIPiSsAzuk0IPTtK8GgweFcxEMKnZBqnpXAXpISL2rrtCG2CJ7Q2wRfEhYB3ZIoQenaV8NBg8K5yIYVOyCVPWuAvSQkHpXXaENsUX2htgi+JCwDuyQQg9O074aDB4UzkUwqNgFqepdBeghIfWuukIbYovsDbFF8CFhHdghhR6cpn01GDwonItgULELUtW7CtBDQupddYU2xBbZG2KL4EPCOrBDCj04TftqMHhQOBfBoGIXpKp3FaCHhNS76gptiC2yN8QWwYeEdWCHFHpwmvbVYPCgcC6CQcUuSFXvKkAPCal31RXaEFtkb4gtgg8J68AOKfTgNO2rweBB4VwEg4pdkKreVYAeElLvqiu0IbbI3hBbBB8S1oEdUujBadpXg8GDwrkIBhW7IFW9qwA9JKTeVVdoQ2yRvSG2CD4krAM7pNCD07SvBoMHhXMRDCp2Qap6VwF6SEi9q67Qhtgie0NsEXxIWAd2SKEHp2lfDQYPCuciGFTsglT1rgL0kJB6V12hDbFF9obYIviQsA7skEIPTtO+GgweFM5FMKjYBanqXQXoISH1rrpCG2KL7A2xRfAhYR3YIYUenKZ9NRg8KJyLYFCxC1LVuwrQQ0LqXXWFNsQW2Rtii+BDwjqwQwo9OE37ajB4UDgXwaBiF6SqdxWgh4TUu+oKbYgtsjfEFsGHhHVghxR6cJr21WDwoHAugkHFLkhV7ypADwmpd9UV2hBbZG+ILYIPCevADin04DTtq8HgQeFcBIOKXZCq3lWAHhJS76ortCG2yN4QWwQfEtaBHVLowWnaV4PBg8K5CAYVuyBVvasAPSSk3lVXaENskb0htgg+JKwDO6TQg9O0rwaDB4VzEQwqdkGqelcBekhIvauu0IbYIntDbBF8SFgHdkihB6dpXw0GDwrnIhhU7IJU9a4C9JCQelddoQ2xRfaG2CL4kLAO7JBCD07TvhoMHhTORTCo2AWp6l0F6CEh9a66Qhtii+wNsUXwIWEd2CGFHpymfTUYPCici2BQsQtS1bsK0ENC6l11hTbEFtkbYovgQ8I6sEMKPThN+2oweFA4F8GgYhekqncVoIeE1LvqCm2ILbI3xBbBh4R1YIcUenCa9tVg8KBwLoJBxS5IVe8qQA8JqXfVFdoQW2RviC2CDwnrwA4p9OA07avB4EHhXASDil2Qqt5VgB4SUu+qK7QhtsjeEFsEHxLWgR1S6MFp2leDwYPCuQgGFbsgVb2rAD0kpN5VV2hDbJG9IbYIPiSsAzuk0IPTtK8GgweFcxEMKnZBqnpXAXpISL2rrtCG2CJ7Q2wRfEhYB3ZIoQenaV8NBg8K5yIYVOyCVPWuAvSQkHpXXaENsUX2htgi+JCwDuyQQg9O074aDB4UzkUwqNgFqepdBeghIfWuukIbYovsDbFF8CFhHdghhR6cpn01GDwonItgULELUtW7CtBDQupddYU2xBbZG2KL4EPCOrBDCj04TftqMHhQOBfBoGIXpKp3FaCHhNS76gptiC2yN8QWwYeEdWCHFHpwmvbVYPCgcC6CQcUuSFXvKkAPCal31RXaEFtkb4gtgg8J68AOKfTgNO2rweBB4VwEg4pdkKreVYAeElLvqiu0IbbI3hBbBB8S1oEdUujBadpXg8GDwrkIBhW7IFW9qwA9JKTeVVdoQ2yRvSG2CD4krAM7pNCD07SvBoMHhXMRDCp2Qap6VwF6SEi9q67Qhtgie0NsEXxIWAd2SKEHp2lfDQYPCuciGFTsglT1rgL0kJB6V12hDbFF9obYIviQsA7skEIPTtO+GgweFM5FMKjYBanqXQXoISH1rrpCG2KL7A2xRfAhYR3YIYUenKZ9NRg8KJyLYFCxC1LVuwrQQ0LqXXWFNsQW2Rtii+BDwjqwQwo9OE37ajB4UDgXwaBiF6SqdxWgh4TUu+oKbYgtsjfEFsGHhHVghxR6cJr21WDwoHAugkHFLkhV7ypADwmpd9UV2hBbZG+ILYIPCevADin04DTtq8HgQeFcBIOKXZCq3lWAHhJS76ortCG2yN4QWwQfEtaBHVLowWnaV4PBg8K5CAYVuyBVvasAPSSk3lVXaENskb0htgg+JKwDO6TQg9O0rwaDB4VzEQwqdkGqelcBekhIvauu0IbYIntDbBF8SFgHdkihB6dpXw0GDwrnIhhU7IJU9a4C9JCQelddoQ2xRfaG2CL4kLAO7JBCD07TvhoMHhTORTCo2AWp6l0F6CEh9a66Qhtii+wNsUXwIWEd2CGFHpymfTUYPCici2BQsQtS1bsK0ENC6l11hTbEFtkbYovgQ8I6sEMKPThN+2oweFA4F8GgYhekqncVoIeE1LvqCm2ILbI3xBbBh4R1YIcUenCa9tVg8KBwLoJBxS5IVe8qQA8JqXfVFdoQW2RviC2CDwnrwA4p9OA07avB4EHhXASDil2Qqt5VgB4SUu+qK7QhtsjeEFsEHxLWgR1S6MFp2leDwYPCuQgGFbsgVb2rAD0kpN5VV2hDbJG9IbYIPiSsAzuk0IPTtK8GgweFcxEMKnZBqnpXAXpISL2rrtCG2CJ7Q2wRfEhYB3ZIoQenaV8NBg8K5yIYVOyCVPWuAvSQkHpXXaENsUX2htgi+JCwDuyQQg9O074aDB4UzkUwqNgFqepdBeghIfWuukIbYovsDbFF8CFhHdghhR6cpn01GDwonItgULELUtW7CtBDQupddYU2xBbZG2KL4EPCOrBDCj04TftqMHhQOBfBoGIXpKp3FaCHhNS76gptiC2yN8QWwYeEdWCHFHpwmvbVYPCgcC6CQcUuSFXvKkAPCal31RXaEFtkb4gtgg8J68AOKfTgNO2rweBB4VwEg4pdkKreVYAeElLvqiu0IbbI3hBbBB8S1oEdUujBadpXg8GDwrkIBhW7IFW9qwA9JKTeVVdoQ2yRvSG2CD4krAM7pNCD07SvBoMHhXMRDCp2Qap6VwF6SEi9q67Qhtgie0NsEXxIWAd2SKEHp2lfDQYPCuciGFTsglT1rgL0kJB6V12hDbFF9obYIviQsA7skEIPTtO+GgweFM5FMKjYBanqXQXoISH1rrpCG2KL7A2xRfAhYR3YIYUenKZ9NRg8KJyLYFCxC1LVuwrQQ0LqXXWFNsQW2Rtii+BDwjqwQwo9OE37ajB4UDgXwaBiF6SqdxWgh4TUu+oKbYgtsjfEFsGHhHVghxR6cJr21WDwoHAugkHFLkhV7ypADwmpd9UV2hBbZG+ILYIPCevADin04DTtq8HgQeFcBIOKXZCq3lWAHhJS76ortCG2yN4QWwQfEtaBHVLowWnaV4PBg8K5CAYVuyBVvasAPSSk3lVXaENskb0htgg+JKwDO6TQg9O0rwaDB4VzEQwqdkGqelcBekhIvauu0IbYIntDbBF8SFgHdkihB6dpXw0GDwrnIhhU7IJU9a4C9JCQelddoQ2xRfaG2CL4kLAO7JBCD07TvhoMHhTORTCo2AWp6l0F6CEh9a66Qhtii+wNsUXwIWEd2CGFHpymfTUYPCici2BQsQtS1bsK0ENC6l11hTbEFtkbYovgQ8I6sEMKPThN+2oweFA4F8GgYhekqncVoIeE1LvqCm2ILbI3xBbBh4R1YIcUenCa9tVg8KBwLoJBxS5IVe8qQA8JqXfVFdoQW2RviC2CDwnrwA4p9OA07avB4EHhXASDil2Qqt5VgB4SUu+qK7QhtsjeEFsEHxLWgR1S6MFp2leDwYPCuQgGFbsgVb2rAD0kpN5VV2hDbJG9IbYIPiSsAzuk0IPTtK8GgweFcxEMKnZBqnpXAXpISL2rrtCG2CJ7Q2wRfEhYB3ZIoQenaV8NBg8K5yIYVOyCVPWuAvSQkHpXXaENsUX2htgi+JCwDuyQQg9O074aDB4UzkUwqNgFqepdBeghIfWuukIbYovsDbFF8CFhHdghhR6cpn01GDwonItgULELUtW7CtBDQupddYU2xBbZG2KL4EPCOrBDCj04TftqMHhQOBfBoGIXpKp3FaCHhNS76gptiC2yN8QWwYeEdWCHFHpwmvbVYPCgcC6CQcUuSFXvKkAPCal31RXaEFtkb4gtgg8J68AOKfTgNO2rweBB4VwEg4pdkKreVYAeElLvqiu0IbbI3hBbBB8S1oEdUujBadpXg8GDwrkIBhW7IFW9qwA9JKTeVVdoQ2yRvSG2CD4krAM7pNCD07SvBoMHhXMRDCp2Qap6VwF6SEi9q67Qhtgie0NsEXxIWAd2SKEHp2lfDQYPCuciGFTsglT1rgL0kJB6V12hDbFF9obYIviQsA7skEIPTtO+GgweFM5FMKjYBanqXQXoISH1rrpCG2KL7A2xRfAhYR3YIYUenKZ9NRg8KJyLYFCxC1LVuwrQQ0LqXXWFNsQW2Rtii+BDwjqwQwo9OE37ajB4UDgXwaBiF6SqdxWgh4TUu+oKbYgtsjfEFsGHhHVghxR6cJr21WDwoHAugkHFLkhV7ypADwmpd9UV2hBbZG+ILYIPCevADin04DTtq8HgQeFcBIOKXZCq3lWAHhJS76ortCG2yN4QWwQfEtaBHVLowWnaV4PBg8K5CAYVuyBVvasAPSSk3lVXaENskb0htgg+JKwDO6TQg9O0rwaDB4VzEQwqdkGqelcBekhIvauu0IbYIntDbBF8SFgHdkihB6dpXw0GDwrnIhhU7IJU9a4C9JCQelddoQ2xRfaG2CL4kLAO7JBCD07TvhoMHhTORTCo2AWp6l0F6CEh9a66Qhtii+wNsUXwIWEd2CGFHpymfTUYPCici2BQsQtS1bsK0ENC6l11hTbEFtkbYovgQ8I6sEMKPThN+2oweFA4F8GgYhekqncVoIeE1LvqCm2ILbI3xBbBh4R1YIcUenCa9tVg8KBwLoJBxS5IVe8qQA8JqXfVFdoQW2RviC2CDwnrwA4p9OA07avB4EHhXASDil2Qqt5VgB4SUu+qK7QhtsjeEFsEHxLWgR1S6MFp2leDwYPCuQgGFbsgVb2rAD0kpN5VV2hDbJG9IbYIPiSsAzuk0IPTtK8GgweFcxEMKnZBqnpXAXpISL2rrtCG2CJ7Q2wRfEhYB3ZIoQenaV8NBg8K5yIYVOyCVPWuAvSQkHpXXaENsUX2htgi+JCwDuyQQg9O074aDB4UzkUwqNgFqepdBeghIfWuukIbYovsDbFF8CFhHdghhR6cpn01GDwonItgULELUtW7CtBDQupddYU2xBbZG2KL4EPCOrBDCj04TftqMHhQOBfBoGIXpKp3FaCHhNS76gptiC2yN8QWwYeEdWCHFHpwmvbVYPCgcC6CQcUuSFXvKkAPCal31RXaEFtkb4gtgg8J68AOKfTgNO2rweBB4VwEg4pdkKreVYAeElLvqiu0IbbI3hBbBB8S1oEdUujBadpXg8GDwrkIBhW7IFW9qwA9JKTeVVdoQ2yRvSG2CD4krAM7pNCD07SvBoMHhXMRDCp2Qap6VwF6SEi9q67Qhtgie0NsEXxIWAd2SKEHp2lfDQYPCuciGFTsglT1rgL0kJB6V12hDbFF9obYIviQsA7skEIPTtO+GgweFM5FMKjYBanqXQXoISH1rrpCG2KL7A2xRfAhYR3YIYUenKZ9NRg8KJyLYFCxC1LVuwrQQ0LqXXWFNsQW2Rtii+BDwjqwQwo9OE37ajB4UDgXwaBiF6SqdxWgh4TUu+oKbYgtsjfEFsGHhHVghxR6cJr21WDwoHAugkHFLkhV7ypADwmpd9UV2hBbZG+ILYIPCevADin04DTtq8HgQeFcBIOKXZCq3lWAHhJS76ortCG2w/7q6urDaZo+OLxlt9t99+OPP/55xyNeLzXELlHznlYBB3arlHU9AvZVj5a1PQIugj1a1vYK6F29Yta3CuhdrVLrrzPENpreDbDvT9P0zevr60/fe++9r7969eqjpYOsIbYR3rJFAg7sRWzeNCNgX9kiWwm4CG4l67m3AnqXfbCVgN61lez8cw2x80bTYWB99uzZ+y9fvvzN4S13g+239vv9N25ubj5peNTrJYbYHi1rewUc2L1i1rcI2FctStYsEXARXKLmPa0CelerlHW9AnpXr9h66w2xDZan34U9vOUx3401xDbAW7JYwIG9mM4bzwjYV7bHVgIuglvJeu6tgN5lH2wloHdtJTv/XEPsjNHV1dUXpmn61TRNH11fX//gePnz58+/utvtfj1N0y9PX5ujN8TOCXn9MQIO7Mfoee9DAvaVvbGVgIvgVrKea4i1B7YU0Lu21D3/bEPsjP25QfVowP3tNE3fu76+/nNrKQ2xrVLWLREwbCxR8545AftqTsjrSwVcBJfKeV+LgN7VomTNEgG9a4naOu8xxDYOsbvd7kenv4l4boi9urrar1MmTyFAgAABAgQIECBA4BIFrq+vzVSDCwN8wyH2+fPn//jQ4z//+c9//09/+tPfPX/+/KPBNRcuQODm5ub9L37xi//6pS996V8D0pXiIAH7ahB0YJg//OEPf//HP/7x752JgcUfkLLeNQA5NMShdxlix28AQ2zjEHvfv3s99+9l50p5O+Dudrt/sOnnpLy+ROD2pwD2+/0/3dzcPPiFlCXP9Z5sAfsqu/5bZu9M3FLXs/Uue2ArAb1rK9n55xpiZ4zODaqG2PkNZkWNgAO7xv1tj2pfve0VrsvPRbDOPiGy3pVQ5Zoc9a4a99uohtj5IfadaZp+drfsjV/e9NDfj20pp03fomTNUgEH9lI57zsnYF/ZH1sJOBO3kvXcWwG9yz7YSkDv2kp2/rmG2Hmj6cWLF9/Z7/c/3O/337i5ufnk8JaH/n5swyMnm75FyZqlAg7spXLeZ4i1ByoEnIkV6jkxnYk5tR6dqd41Wvxv8QyxDfZXV1eH78Z+ZZqmb15fX3/6mO/C3oa06RvgLVks4MBeTOeNZwTsK9tjKwFn4laynnsroHfZB1sJ6F1byc4/1xA7b/TXFUeD7Lfv3vK70+/MNj7qr8sOv7nYL97pUbO2VcD+apWyrkfAvurRsrZHwN7q0bK2V8D+6hWzvlXA3mqVWn+dIXZ9U08kQIAAAQIECBAgQIAAgY0EDLEbwXosAQIECBAgQIAAAQIECKwvYIhd39QTCRAgQIAAAQIECBAgQGAjAUPsRrAeS4AAAQIECBAgQIAAAQLrCxhi1zf1RAIECBAgQIAAAQIECBDYSMAQuxGsxxIgQIAAAQIECBAgQIDA+gKG2PVNPZEAAQIECBAgQIAAAQIENhIwxG4E+9Bj33vvva+/evXqo6PXfzFN0/eur6//PPijCPdEBZ4/f/7V3W7362ma3j1K4cfX19c/OE3pnr9vPD179uz9ly9f/uaJpu9jDxR48eLFd/b7/T9P0/TQ/vpwmqYPDh9pt9t99+OPP/75wI8o1BMTuLq6+sI0Tb+apulrdx/93jPw6urK3npita38uPecdb/b7/ffuLm5+eT0c7mHVVbqacQ+2k//77671W0WrfvIPWy7mhtit7P9zJMPG/4wRBwd5r81yA4sxBMOddgzz549++AwiB4Ntf82TdM3r6+vP71N8ahx3v7fv36h5DCUGGSf8CYY9NFPvljymSH2bsh4/7DnDv3NIDuoQE8wzH175Pa/7ff7rxx/8cPeeoLFLfzI992lHjrr3MMKC/UEQt8zcN77BdzWfeQetm3RDbHb+r5++lGT/ej4qzoufoMK8JaEuWuI7xwG1UNa9+2ju0P8h8dfjT5qqF85HnjfEh5prChw8p2wNw7y0wP8EPbuPd966DsgK348j3piAocvijx79uy/nftJEHvriRX2Aj7uzFn3+ou47mEXUKwL/gh3vedfbs+v24959xNvvzz9TmzPPnIP27bghthtfV8//czBfPjRKt+NHVSLtzHM4YK42+1+dPsdjfu++nfI23dj38YdsG5ORz8m9f1pmv77NE1vHOSn3yk798WUdT+Zpz1Vgbs981/mfurI3nqqFa773A998eyh7+if/iSSn4qrq92lRj76SaTPDLGt9/m73H52979v/LNB97B1Km+IXcdx9ikPHcy+MzZLZ0GDwOkQe/r/jx/hu/8NoMFLjr/KvN/v/+X0q9EPfRX6luzcwR9MGp/6Yc/sdrv/ee7fTNtb8VtlEcB9A8F9X8h1D1vEG/mmc2dZ6z7a7/f/6fb8PHxzwT1s/a1kiF3f9DNPnBtU/QjegCK85SFOD/Fzg6pB4y3fDI9M7/iAPhzCx9+JnTnc/WTJI/3fxrcff+fi1atXtz+qd+8vA7O33sbqb5/TfXes0x/jdA/bvg5vU4SHelHPPvrc5z73xdtf5Hrf74lwD1tntxhi13E8+5RzP9p5+0ZD7IAivMUhjn708/Vv+Xzox118t+wt3ggrpHa6b+47aM99l9+P5a1QhLfwEce/xfP4Qnf44tvhv9lbb2HxB6U099uJ3cMGFeItCdMwxN5m+pm/LHJ8nz8Msff9Ik1D7DobxRC7jqMhdoCjEJ8VOPoTKG/8OQFDrN3SK3BuYL3vO7H3/YiUIbZXPWP9UZ9648/pnH5X49yP39lbGXtlSZZHXyR5/QvoTv+bIXaJbO57DLFPo/aG2AF1avzxg9d/qmLARxLiiQucfNX5/5z+puGWHye+bwh54iw+/kKBhwaE1sH2EPbcv2lc+NG87S0QOP2O63FKx/8U4i9/+csfe38j6FvAI4VHCJz74sbx3nr16tXLaZpuf8nOvb+Z/6F/5/iIj+atT1igYYid3UfPnj37r3M/Tuwe9rhNYoh9nF/zu881SM2zmdHC//jx88O/O/zaNE33/g2zcz+Wd+41wJkCR98pmwP48TRN/2Oapl9N0/TGnwu7faMhdo4v8/VzX1Q7GTT+r72VuUeWZt3yBdvDT5K4hy1Vznvfkl/sdHcGfjhN01+/KXXuJ0vcw9bZU4bYdRxnn3Lf34py6Ztls+BE4Pg7sPf9soDD8nPDxEN7ETaBU4H7DvJzP5Z37sfY6eYKnLsQHvej3W73u7vvlt1ivfHvzeyt3P1zLvOeIdY9zB5qFWjtWTc3N588dO9yD2vVXr7OELvcruudD33VLAWY7gAABk1JREFUxcHcxRi/uOfP49z3Vee5fxcUDwzgDYGHDvIzl8HXX4W+vr7+FCeBuy/WvnPfj3Le14/sLXumR6D1x4lfvnz5G/ewHtnsteeG2J595B627T4yxG7r+8bTT/8Mih+9G4j/loTq+S7qfYd7z/vfEjJpPEKg598F+YLcI6AD3nrfXrqvH933OyTsrYAN8ogU7/vi7tF++9/H39V3D3sEdNBb5357cOs+cg/bdtMYYrf1/czTT//t2bkfCR380YR7AgJ3X9V7/TcW7/nIb/ySp5N/P3u7/DO/BOoJpO0jFgnM/Lugw3fXvn338d74DdlFH1nYCxZo7Udzfy7lglP00YoEjnrVu4eP8ND9yj2sqEhPKOzcEHubSus+au17T4jnYj6qIfZiSuGDECBAgAABAgQIECBAgMCcgCF2TsjrBAgQIECAAAECBAgQIHAxAobYiymFD0KAAAECBAgQIECAAAECcwKG2DkhrxMgQIAAAQIECBAgQIDAxQgYYi+mFD4IAQIECBAgQIAAAQIECMwJGGLnhLxOgAABAgQIECBAgAABAhcjYIi9mFL4IAQIECBAgAABAgQIECAwJ2CInRPyOgECBAgQIECAAAECBAhcjIAh9mJK4YMQIECAAAECBAgQIECAwJyAIXZOyOsECBAgQIAAAQIECBAgcDEChtiLKYUPQoAAAQIECBAgQIAAAQJzAobYOSGvEyBAgAABAgQIECBAgMDFCBhiL6YUPggBAgQIECBAgAABAgQIzAkYYueEvE6AAAECBAgQIECAAAECFyNgiL2YUvggBAgQIECAAAECBAgQIDAnYIidE/I6AQIECBAgQIAAAQIECFyMgCH2YkrhgxAgQIAAAQIECBAgQIDAnIAhdk7I6wQIECBAgAABAgQIECBwMQKG2IsphQ9CgAABAgQIECBAgAABAnMChtg5Ia8TIECAAAECBAgQIECAwMUIGGIvphQ+CAECBAgQIECAAAECBAjMCRhi54S8ToAAAQIECBAgQIAAAQIXI2CIvZhS+CAECBAgQIAAAQIECBAgMCdgiJ0T8joBAgQIECBAgAABAgQIXIyAIfZiSuGDECBAgAABAgQIECBAgMCcgCF2TsjrBAgQIECAAAECBAgQIHAxAobYiymFD0KAAAECBAgQIECAAAECcwKG2DkhrxMgQIAAAQIECBAgQIDAxQgYYi+mFD4IAQIECBAgQIAAAQIECMwJGGLnhLxOgAABAgQIECBAgAABAhcjYIi9mFL4IAQIECBAgAABAgQIECAwJ2CInRPyOgECBAgQIECAAAECBAhcjIAh9mJK4YMQIECAAAECBAgQIECAwJyAIXZOyOsECBAgQIAAAQIECBAgcDEChtiLKYUPQoAAAQIECBAgQIAAAQJzAobYOSGvEyBAgAABAgQIECBAgMDFCBhiL6YUPggBAgQIECBAgAABAgQIzAkYYueEvE6AAAECBAgQIECAAAECFyNgiL2YUvggBAgQIECAAAECBAgQIDAnYIidE/I6AQIECBAgQIAAAQIECFyMgCH2YkrhgxAgQIAAAQIECBAgQIDAnIAhdk7I6wQIECBAgAABAgQIECBwMQKG2IsphQ9CgAABAgQIECBAgAABAnMChtg5Ia8TIECAAAECBAgQIECAwMUIGGIvphQ+CAECBAgQIECAAAECBAjMCRhi54S8ToAAAQIECBAgQIAAAQIXI2CIvZhS+CAECBAgQIAAAQIECBAgMCdgiJ0T8joBAgQIECBAgAABAgQIXIyAIfZiSuGDECBAgAABAgQIECBAgMCcgCF2TsjrBAgQIECAAAECBAgQIHAxAobYiymFD0KAAAECBAgQIECAAAECcwKG2DkhrxMgQIAAAQIECBAgQIDAxQgYYi+mFD4IAQIECBAgQIAAAQIECMwJGGLnhLxOgAABAgQIECBAgAABAhcjYIi9mFL4IAQIECBAgAABAgQIECAwJ2CInRPyOgECBAgQIECAAAECBAhcjIAh9mJK4YMQIECAAAECBAgQIECAwJyAIXZOyOsECBAgQIAAAQIECBAgcDEChtiLKYUPQoAAAQIECBAgQIAAAQJzAobYOSGvEyBAgAABAgQIECBAgMDFCBhiL6YUPggBAgQIECBAgAABAgQIzAn8O3qx0H09k/VxAAAAAElFTkSuQmCC"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3657600" y="3022600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5124" name="AutoShape 4" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAA7EAAAOxCAYAAAAjIyBZAAAgAElEQVR4Xuz9b6ju2XUY9n+fe2W7ljwggmzSlM5QRF9ItLZ1z7k2rkM1L+q2atQ0pP8cQYmRmDdpWqelILUB/6ubOtTY6T+YiZAgeeGqThuaWMEugWb8Kkhzz5UMjQSNRdCUlmCLVrZqCdu65ymPOWd85uj+WWvf/eylc9dHb37xzNrfdfdn7a691+/cuXe3+R8BAgQIECBAgAABAgQIELghArsb8uv0yyRAgAABAgQIECBAgAABApsh1iEgQIAAAQIECBAgQIAAgRsjYIi9MaXyCyVAgAABAgQIECBAgAABQ6wzQIAAAQIECBAgQIAAAQI3RsAQe2NK5RdKgAABAgQIECBAgAABAoZYZ4AAAQIECBAgQIAAAQIEboyAIfbGlMovlAABAgQIECBAgAABAgQMsc4AAQIECBAgQIAAAQIECNwYAUPsjSmVXygBAgQIECBAgAABAgQIGGKdAQIECBBoLfCDP/iDz33ta1/7K9u2vb7b7f7mc8899/lXX33169dQdu95z3vesdvt/vitW7f+9LZtv7/f7//82dnZV1vj2TwBAgQIECgQMMQWoEtJgAABAt88Aqenp+/Z7/e/sm3bdx1+Vbvd7s/cu3fvE1d/hXfv3v2j+/3+f9zv9//ixT8/DLF/8v79+4d1j/3f6enpB/f7/ceeFDfy73e73Yfu3bv38ZG11hAgQIAAgZsqYIi9qZXz6yZAgACBKQInJyc/um3b4Sexh/99/vbt23/i05/+9D+6/vHT09Mf3u/3/8PlPz/81ParX/3qn/3c5z73/z3uF2KInVImHyFAgAABAm8IGGIdBgIECBBoK/C93/u9b799+/Yvbtv2QxcIP/fcc899+CG/nXi79tPYf7xt2688ePDgL332s5/9h4kh9uz27dsfePDgwf9z69atb3/w4MHP73a7f/Ow/vCT3d1u9/cv/t8/sNvt/vbF//t/vn379n90fn7+tdu3b/+RBw8e/MK2bSeHf+cnsW2Pro0TIECgtYAhtnX5bZ4AAQK9Be7evfsvnJ+fH35L8HOH/8718FuJ9/v94b95/cDTyNy6devF11577VcP37j2k9hPbdv2/rOzsy+dnJy8ddu2j17murrm7t277z0/P3/14tdwGFpfOvz3tycnJ+/Ytu2T27Z9vyH2aSpkLQECBAjcZAFD7E2unl87AQIECDyNwO709PQ/2+/3P33xkf/t1q1bP3J+fv4zRxxin+bX+w1r/SR2KqePESBAgMANETDE3pBC+WUSIECAwFyB97znPX/s9u3bf2u/359efPkvXPxk9I2fjo5mfMxPYkc/+dB1htipnD5GgAABAjdEwBB7Qwrll0mAAAECcwUe8gc1feg7vuM7/vpv/dZvfe9b3vKWtz9Ntq9//eu/9pnPfOY3D9+4+G3Dh986/Mj/7ff7N/4b2Iug/2bbtv888Gv4qr/mJ6AkhAABAgSeKQFD7DNVTpshQIAAgYjAu9/97u9461vf+tcu/vvXP1hy9aea7373u7/1bW972+n5+fmP7Ha7X793795/dfizl65/+8UXX/wnvvKVr/z8fr8//KFLf+t3fud3zq7+acUnJyeH35r84civaTTGT2NH5awjQIAAgZsqYIi9qZXz6yZAgACBYYFrf6DTm4bYF1988S1f+cpXfm7btv/gIsHfffDgwb/z2c9+9svXE373d3/3d33rt37r37nyW5L/3/Pz83/5M5/5zL1DrCF2uEQWEiBAgACBRwoYYh0OAgQIEGglcDGk/uy2bYe/H/aN/139iebp6em/td/v/8bFv/yN3W73r967d+8z16FOTk4Of0rw3734040PP839+w8ePPg3Ln8r8enp6T+32+3+6JOA9/v9P7/f7w+D8x/8b7/ff+L27dsfe9K6w7/f7XZfeNjfaxtZK4YAAQIECNxEAUPsTayaXzMBAgQIDAucnJzc2bbtl7Zt+2OPGmK/7/u+75958ODB39m27V0XMX/h7Ozsv76e9PT09N/b7/d//co//y/Pzs7+4vXfenznzp137Xa7X9627YXhX/ibF35xv9+/7/79+5+f9D2fIUCAAAECN0bAEHtjSuUXSoAAAQJPK/Con8Ievnv1J7HX/w7Xbdve+LtaL38ND/ltx79/69atH7r8+2Gv/loNsU9bOesJECBAgMAfChhinQYCBAgQaCNwcnLyT27bdvgJ63u2bfvH27a97cpvBf7QvXv3Pn6JcXJycvjtxn/l4v/+P7Zt+9fOzs6+cPnvf+AHfuCP/N7v/d7f3rbtBy+G4HsXv5X4/74O+pAh9mdv3br1v2bgz8/P/5Vt2/6TizV+EpvBE0uAAAECz5SAIfaZKqfNECBAgMDjBK7+hHW/3/8Xu93uX9q27fDftb7pJ7GH//sh/73rv33v3r3/6fL7p6en79nv97+ybdt3Xfyzn3vuuec+/Oqrr349MMQ+baEMsU8raD0BAgQI3FgBQ+yNLZ1fOAECBAiMCFz8hPXPHf76nFu3bv38o4bY97znPd95+GtzDn+H60We//a55577jy+H1NPT0w/u9/urf/jS+8/Ozg4/5f2G/13/Sexut/ul/X7/DX9Q1OP2s9vtDkPzv34RY4gdKb41BAgQIPBMCBhin4ky2gQBAgQIRAVOTk7++LZtf+rWrVs/e35+/r88aog9/F2x3/7t3/7fbdv20uHbu93ujd8ufP3fbdv22a9//evv/7Vf+7X/KzjEvum3Lkd+7deGZkNsBE0MAQIECDyTAobYZ7KsNkWAAAECjxK4+O9i37pt229t2/bJRw2xh/XXBsc3/uCm7/me7/mn3vKWtxzWfu9Fno9+7Wtf+/Of+9znfi8yxE6ojiF2AqJPECBAgMDNFDDE3sy6+VUTIECAwFMKnJycvCMwxL7pv3vd7/d/8f79+3/p7t277z0/Pz/8/bDfcvhl7Ha7N/33std/aX478VMWy3ICBAgQIHBFwBDrOBAgQIBAS4HIEHv9v4vd7XZ/89u+7dt+5Hd/93f/w/1+/9MXcJ+/ffv2n/j0pz/9jx4F+ZAh1m8nbnnqbJoAAQIEZggYYmco+gYBAgQI3DiByBB78XfB/vR+v//W27dv//W3ve1t//uXv/zl77h9+/Yvbtv2Q4dN7/f7j//2b//2n/v1X//1340OsROw/HbiCYg+QYAAAQI3U8AQezPr5ldNgAABAk8pEBliH5biIX/1zhN/quq3Ez9lsSwnQIAAAQJXBAyxjgMBAgQItBR42BC72+2+cH5+/uoEkDf9pNRvJ54g6hMECBAgQOBCwBDrKBAgQIBAS4FjD7Hbtv3727b999u2vXBkYL+1+MjAPk+AAAEC31wChthvrnr41RAgQIDAIgFD7CJoaQgQIECAwGQBQ+xkUJ8jQIAAgZsh8LAh9sGDB7/0lre85Xuedgf7/f7r3/It3/IPf//3f/+f3e12b3na7z1u/SHX7du373/qU5/67WPm8W0CBAgQIPDNImCI/WaphF8HAQIECCwVGP2DnZb+IiUjQIAAAQIEvkHAEOtQECBAgAABAgQIECBAgMCNETDE3phS+YUSIECAAAECBAgQIECAgCHWGSBAgAABAgQIECBAgACBGyNgiL0xpfILJUCAAAECBAgQIECAAAFDrDNAgAABAgQIECBAgAABAjdGwBB7Y0rlF0qAAAECBAgQIECAAAEChlhngAABAgQIECBAgAABAgRujIAh9saUyi+UAAECBAgQIECAAAECBAyxzgABAgQIECBAgAABAgQI3BgBQ+yNKZVfKAECBAgQIECAAAECBAgYYp0BAgQIECBAgAABAgQIELgxAobYG1Mqv1ACBAgQIECAAAECBAgQMMQ6AwQIECBAgAABAgQIECBwYwQMsTemVH6hBAgQIECAAAECBAgQIGCIdQYIECBAgAABAgQIECBA4MYIGGJvTKn8QgkQIECAAAECBAgQIEDAEOsMECBAgAABAgQIECBAgMCNETDE3phS+YUSIECAAAECBAgQIECAgCHWGSBAgAABAgQIECBAgACBGyNgiL0xpfILJUCAAAECBAgQIECAAAFDrDNAgAABAgQIECBAgAABAjdGwBB7Y0rlF0qAAAECBAgQIECAAAEChlhngAABAgQIECBAgAABAgRujIAh9saUyi+UAAECBAgQIECAAAECBAyxzgABAgQIECBAgAABAgQI3BgBQ+yNKZVfKAECBAgQIECAAAECBAgYYp0BAgQIECBAgAABAgQIELgxAobYG1Mqv1ACBAgQIECAAAECBAgQMMQ6AwQIECBAgAABAgQIECBwYwQMsTemVH6hBAgQIECAAAECBAgQIGCIdQYIECBAgAABAgQIECBA4MYIGGJvTKn8QgkQIECAAAECBAgQIEDAEOsMECBAgAABAgQIECBAgMCNETDE3phS+YUSIECAAAECBAgQIECAgCHWGSBAgAABAgQIECBAgACBGyNgiL0xpfILJUCAAAECBAgQIECAAAFDrDNAgAABAgQIECBAgAABAjdGwBB7Y0rlF0qAAAECBAgQIECAAAEChlhngAABAgQIECBAgAABAgRujIAh9saUyi+UAAECBAgQIECAAAECBAyxzgABAgQIECBAgAABAgQI3BgBQ+yNKZVfKAECBAgQIECAAAECBAgYYp0BAgQIECBAgAABAgQIELgxAobYG1Mqv1ACBAgQIECAAAECBAgQMMQ6AwQIECBAgAABAgQIECBwYwQMsTemVH6hBAgQIECAAAECBAgQIGCIdQYIECBAgAABAgQIECBA4MYIPNND7MnJyVu3bfvotm3/59nZ2UceVpU7d+68a7fb/fK2bS9c/PtPbdv2/rOzsy9djz85OfmZbds+fPnPd7vdh+7du/fxG1Ntv1ACBAgQIECAAAECBAjccIFncoi9Mrx+4KI+f/lhQ+zlALvb7X7qMIxeWffO64PsxQD74uU/v3v37nvPz89fNcje8P8vwC+fAAECBAgQIECAAIEbJfDMDbEXw+Vf2+/37ztU4uKnrJ+4PsReGVgPYS+dnZ199fD/uPKT2TfWXA6st27devG111771csKXwy2P3zIdf/+/c/fqMr7xRIgQIAAAQIECBAgQOAGCjxzQ+zVGjxsIL3899d/CntlML38Lchv/DT2+k9hL2P9NPYGnni/ZAIECBAgQIAAAQIEbrRA2yH29PT0g/v9/sce9lPUqz9h3e12v7lt2ye3bXv1+k9zHzck3+hT4RdPgAABAgQIECBAgACBb1KBtkPs434r8MWA+7HDbx9+8ODBbzzmtyS/42LA/cLV35IcqfXp6emf2e/3/+7Z2dmfisSLIUCAAAECBAgQIECAAIFt6z7EvvEHNV09DA8bYi//8KercScnJ48dYk9OTvaPOmTPP//8l19//fW3v/LKK84hAQIECBAgQIAAAQI3T+DVbdtePD09faZnqm/GsjzT4I/77b6P+u9cD0WaNcTeuXPnJx5V9BdeeOFHD0Psyy+//JPfjAfDr+lmC+x2ux8//Bb4/X7/xh9EdrN35Ff/zSDgXH0zVOHZ/DXsdrv3Hh6C+/3enfhslrh0V3pXKf8znfyydxli15e5+xD70D9Z+Op/L3soSeC3E3/Dfy/7pFK+9NJLf+/+/fsvnp2dPdM1eJKDf38cgXv37u0Pj8G7d+8+8v+PlONk9tVnWcC5eparW7u311577ScOg4aHYG0dntXsetezWtn6felddTV4pgeox/0k9nF/sNPVf/e4P9jpym8nNsTWnWGZHyLgwnYsjiHgXB1D1TcPAh6CzsExBfSuY+r2/rbeVVf/tkPsY/7u18u/YudQlZcuSvPRi//fN/4+2cP//ahvRMrpJ7ERJTGjAi7sUTnrHifgXDkfxxLwEDyWrO8eBPQu5+BYAnrXsWSf/N22Q+yjfor6sL8/9lE/tX3cf1f7JHpD7JOE/PunEXBhP42etY8ScK6cjWMJeAgeS9Z3DbHOwDEF9K5j6j7+222H2APL5U9Sd7vdh+7du/fxk5OTN/0U9uzs7KuHuCv//J3btr3/7OzsS0/zU9jDNw2xdYe+Q2bDRocqr9+jc7XevEtGD8Eula7Zp95V494hq95VV+XWQ+zVQfZKCf7y2dnZR66X5Mog+4GLf/fF/X7/vvv3739+pHyG2BE1a6ICLuyolLiMgHOV0RKbEfAQzGiJzQroXVkx8VEBvSsqNT/umR5i53PN+6Ihdp6lL32jgAvbqTiGgHN1DFXfPAh4CDoHxxTQu46p2/vbeldd/Q2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPGeFEnMAACAASURBVAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddodsPsXfu3HnXbrf75W3bXrgowy9s2/bS2dnZV6+X5eTk5Ge2bfvw5T/f7XYfunfv3sdHymeIHVGzJirgwo5KicsIOFcZLbEZAQ/BjJbYrIDelRUTHxXQu6JS8+NaD7F379597/n5+auXw+jJyclbt2376LZt79y27f1nZ2dfuiS/GGBfvPzn19dmS2OIzYqJzwi4sDNaYqMCzlVUSlxWwEMwKyY+I6B3ZbTEZgT0rozW3Ni2Q+yVgfUg+sZPXi9/Mrvb7X7q8qeslwPrrVu3Xnzttdd+9dpg+8P7/f599+/f/3ymNIbYjJbYrIALOysmPiLgXEWUxIwIeAiOqFkTFdC7olLisgJ6V1ZsXnznIfYd27Z9ctu2L1wdYk9OTi7/+atnZ2cfOVBf/ynsJf/T/DTWEDvvEPvSNwq4sJ2KYwg4V8dQ9c2DgIegc3BMAb3rmLq9v6131dW/8xD70N86fP0nsQ8bai/LdeW/p/3E5cAbLaUhNiolbkTAhT2iZs2TBJyrJwn596MCHoKjctZFBPSuiJKYEQG9a0Rtzpq2Q+yB7/oQ+rDfYvy4QfXKgPumn+ZGSmOIjSiJGRVwYY/KWfc4AefK+TiWgIfgsWR99yCgdzkHxxLQu44l++Tvth5irw2yD/3TiR/238hesj5piD05Odk/qgTPP//8l19//fW3v/LKK0+ukggCBAgQIECAAAECBL7ZBF7dtu3F09PT9jPV6sK0Br/8K3Ou/oFN1//Z0wyxd+7c+YlHFfSFF1740cMQ+/LLL//k6qLL9+wL7Ha7H9+27dX9fv/GH0T27O/aDo8t4FwdW7jv93e73XsPD8H9fu9O7HsMjrZzvetotO0/fNm7DLHrj0LbIfZRfyjT9b9mZ7/ff+fF3yP7Df/d6+P+e9knldJvJ36SkH//NAJ+69TT6Fn7KAHnytk4loDfkncsWd89COhdzsGxBPSuY8k++btth9iLn7g+9K/HOT09/eB+v//Y4Se05+fn/+DiTzF+408rvmQ1xD75gImoEXBh17g/61mdq2e9wnX78xCss++QWe/qUOWaPepdNe6HrIbYh/wdr9eG2Ne2bfvoRYne+PtkD//3o/7+2Eg5/SQ2oiRmVMCFPSpn3eMEnCvn41gCHoLHkvVdP4l1Bo4poHcdU/fx3247xEZ/O/HZ2dmXLobaH9tfG3gf9ffHRsppiI0oiRkVMGyMyllniHUGKgQ8BCvU++R0J/ap9eqd6l2rxf8wX9sh9kDwsN9SfPlT2N1u96F79+59/CLuG/5O2af5Kezhm4bYukPfIbMLu0OV1+/RuVpv3iWjh2CXStfsU++qce+QVe+qq3LrIfbAfjm0XinBF6//xPXaIPuBi9iHxkVLaYiNSokbEXBhj6hZ8yQB5+pJQv79qICH4KicdREBvSuiJGZEQO8aUZuzpv0QO4cx/xVDbN7MiriACztuJTIu4FzFrUTmBDwEc16icwJ6V85LdFxA74pbzY40xM4WDX7PEBuEEjYk4MIeYrPoCQLOlSNyLAEPwWPJ+u5BQO9yDo4loHcdS/bJ3zXEPtnoKBGG2KOw+uiFgAvbUTiGgHN1DFXfPAh4CDoHxxTQu46p2/vbeldd/Q2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi/7XCDwAAIABJREFU+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsUX2htgi+CZpXdhNCr14m87VYvBG6TwEGxW7YKt6VwF6k5R6V12hDbFF9obYIvgmaV3YTQq9eJvO1WLwRuk8BBsVu2CrelcBepOUelddoQ2xRfaG2CL4Jmld2E0KvXibztVi8EbpPAQbFbtgq3pXAXqTlHpXXaENsdu2nZycvGPbtk9u2/b9F6X4hW3bXjo7O/vq1dKcnJz8zLZtH778Z7vd7kP37t37+Ej5DLEjatZEBVzYUSlxGQHnKqMlNiPgIZjREpsV0LuyYuKjAnpXVGp+XPsh9u7du+89Pz9/9epAevhn+/3+nVcH1IsB9sVt295/dnb2pYety5THEJvREpsVcGFnxcRHBJyriJKYEQEPwRE1a6ICeldUSlxWQO/Kis2Lbz3E3rlz51273e6Xb9269Wdfe+21X30U6+XAeuvWrRevxl0Mtj+83+/fd//+/c9nymKIzWiJzQq4sLNi4iMCzlVEScyIgIfgiJo1UQG9KyolLiugd2XF5sW3HmIvhtB/+mG/dfgq8fWfwl7+u6f5aawhdt4h9qVvFHBhOxXHEHCujqHqmwcBD0Hn4JgCetcxdXt/W++qq3/bIfbyv4Pd7XZ/9XH/XeuV/1721bOzs49cLdXlT3K3bfvE9X/3pJIaYp8k5N8/jYAL+2n0rH2UgHPlbBxLwEPwWLK+exDQu5yDYwnoXceSffJ32w6xV3+L8Pn5+fse9Qc2PW5QvTLgfuFJP829XgpD7JMPp4hxARf2uJ2VjxZwrpyOYwl4CB5L1ncNsc7AMQX0rmPqPv7b7YfYA8/VP9Tp9PT0g/v9/mOX/+xyiN3tdj91/Se2TxpiT05O9o/if/7557/8+uuvv/2VV16pq77MBAgQIECAAAECBAiMCry6bduLp6enbWeqUbinXdcW/HJY3bbtTX+dzsnJyVu3bfvotm3vPPxJxPv9/jsPf/jTyBB7586dn3hUgV544YUfPQyxL7/88k8+bRGtJ3BdYLfb/fi2ba/u9/tH/oFl1AhkBZyrrJj4qMBut3vv4SG43+/diVE0cWEBvStMJTApcNm7DLFJuAnh7YfYh/1dr5cD7uFPI37w4MFvHIbYh/13r4/772WfVBu/nfhJQv790wj4bZ9Po2ftowScK2fjWAJ+S96xZH33IKB3OQfHEtC7jiX75O+2HWIf9ycLXx1iz8/P/8G2bZ88/FTr+h/eZIh98gETUSPgwq5xf9azOlfPeoXr9uchWGffIbPe1aHKNXvUu2rcD1nbDrGP+wObLobYHzv8/a+73e6LF7+9+OD10tnZ2Vcvy/Wovz82Uk4/iY0oiRkVcGGPyln3OAHnyvk4loCH4LFkfddPYp2BYwroXcfUffy32w6x1//b17Ozsy8dqK788zeG1qtD7f379z9/Sfqovz82Uk5DbERJzKiAYWNUzjpDrDNQIeAhWKHeJ6c7sU+tV+9U71ot/of52g6xB4KH/TT2YQPrwwbep/kp7B9Mxy+99Pfu37//4tnZWesa1B39ZzuzC/vZrm/V7pyrKvlnP6+H4LNf48od6l2V+s92br2rrr7tB6gr/13r91+U4VOHP5X48iezV37qevmnFn/g4p998fDbja/+ZDZTRkNsRktsVsCFnRUTHxFwriJKYkYEPARH1KyJCuhdUSlxWQG9Kys2L779EDuPMvclQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsTO1Ex8yxCbwBKaFnBhp8ksCAg4VwEkIUMCHoJDbBYFBfSuIJSwtIDelSabtsAQO40y9yFDbM5LdE7AhZ3zEh0TcK5iTqLyAh6CeTMr4gJ6V9xKZE5A78p5zYw2xM7UTHzLEJvAEpoWcGGnySwICDhXASQhQwIegkNsFgUF9K4glLC0gN6VJpu2wBA7jTL3IUNszkt0TsCFnfMSHRNwrmJOovICHoJ5MyviAnpX3EpkTkDvynnNjDbEztRMfMsQm8ASmhZwYafJLAgIOFcBJCFDAh6CQ2wWBQX0riCUsLSA3pUmm7bAEDuNMvchQ2zOS3ROwIWd8xIdE3CuYk6i8gIegnkzK+ICelfcSmROQO/Kec2MNsRe0bx79+57z8/PX9227Re2bXvp7Ozsq1exT05Ofmbbtg9f/rPdbvehe/fufXykIIbYETVrogIu7KiUuIyAc5XREpsR8BDMaInNCuhdWTHxUQG9Kyo1P84Qe2F6cnLyjm3bPrlt2/c/bIi9GGBf3Lbt/WdnZ1+6HHhHB1lD7PzD7It/KODCdhqOIeBcHUPVNw8CHoLOwTEF9K5j6vb+tt5VV39D7IX96enpB/f7/ccu/s83/ST2cmC9devWi6+99tpstPWtAAAgAElEQVSvXpbrYrD94f1+/7779+9/PlNGQ2xGS2xWwIWdFRMfEXCuIkpiRgQ8BEfUrIkK6F1RKXFZAb0rKzYv3hC7bdudO3fetdvtfnm/3//V3W73J7dt+8LV3058/aewl/xP89NYQ+y8Q+xL3yjgwnYqjiHgXB1D1TcPAh6CzsExBfSuY+r2/rbeVVf/9kPsycnJW7dt++hFCf7Tbdt+8eoQe+W3Gb96dnb2kauluhx+t237xPV/96SSGmKfJOTfP42AC/tp9Kx9lIBz5WwcS8BD8FiyvnsQ0Lucg2MJ6F3Hkn3yd9sPsRe/jfjHDr8leLfb/ebFfxf7xk9iHzeoXhlw3/ST2yezb5shNqIkZlTAhT0qZ93jBJwr5+NYAh6Cx5L1XUOsM3BMAb3rmLqP/3brIfZyQN3tdj91+FOGHzaUXo+5yvmkIfbk5GT/KP7nn3/+y6+//vrbX3nllbrqy0yAAAECBAgQIECAwKjA4W81efH09LT1TDWK9zTr2oI/bACdPcTeuXPnJx5VnBdeeOFHD0Psyy+//JNPU0BrCTxMYLfb/fi2ba/u9/s3/iAyUgSeVsC5elpB6x8lsNvt3nt4CO73e3eiYzJdQO+aTuqDFwKXvcsQu/5ItBxir/x3sO+8/CtzDvSPG2If9t+9Pu6/l31SKf124icJ+fdPI+C3fT6NnrWPEnCunI1jCfgteceS9d2DgN7lHBxLQO86luyTv9tyiL38U4WfzLP9wq1btz5yfn7+Nw4/1br+hzcZYgOCQkoEXNgl7M98UufqmS9x2QY9BMvoWyTWu1qUuWSTelcJ+x8kbTnEPor7Eb/F+OqfXvzS2dnZVy/XP+rvj42U009iI0piRgVc2KNy1j1OwLlyPo4l4CF4LFnfPQjoXc7BsQT0rmPJPvm7htgrRo/6g5qu/gnG9+/f//zlkkf9/bFPZvenE0eMxIwLuLDH7ax8tIBz5XQcS8BD8FiyvmuIdQaOKaB3HVP38d82xAaG2If9N7RP81PYQ0o/ia079B0yGzY6VHn9Hp2r9eZdMnoIdql0zT71rhr3Dln1rroqG2IDQ+wh5Mog+4GLJV88/N2yV38ymymjITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3pUVmxdviJ1nmfqSITbFJTgp4MJOggkPCThXISZBAwIeggNoloQF9K4wlcCkgN6VBJsYboidiJn5lCE2oyU2K+DCzoqJjwg4VxElMSMCHoIjatZEBfSuqJS4rIDelRWbF2+InWeZ+pIhNsUlOCngwk6CCQ8JOFchJkEDAh6CA2iWhAX0rjCVwKSA3pUEmxhuiJ2ImfmUITajJTYr4MLOiomPCDhXESUxIwIegiNq1kQF9K6olLisgN6VFZsXb4idZ5n6kiE2xSU4KeDCToIJDwk4VyEmQQMCHoIDaJaEBfSuMJXApIDelQSbGG6InYiZ+ZQhNqMlNivgws6KiY8IOFcRJTEjAh6CI2rWRAX0rqiUuKyA3vX/t3fHPJJlVZ7AXxReC2MMFq3B0iNhofUqq4VJu0h8AISzEggbaZ3GYmawGmk/ACwapHEQHwAJa6XGWGNVnemt2kIaWIwRamMd8KgYJZNRREVnxrv35Xv3RNb/ZyE6brwT53euzr0nMyuzV2y99YbY9Sy7nmSI7eKyuFPAgd0JZnmTgH3VxGTRAgEXwQVo3tIsoHc1U1nYKaB3dYKtuNwQuyJmz6MMsT1a1vYKOLB7xaxvEbCvWpSsWSLgIrhEzXtaBfSuVinregX0rl6x9dYbYtez7HqSIbaLy+JOAQd2J5jlTQL2VROTRQsEXAQXoHlLs4De1UxlYaeA3tUJtuJyQ+yKmD2PMsT2aFnbK+DA7hWzvkXAvmpRsmaJgIvgEjXvaRXQu1qlrOsV0Lt6xdZbb4hdz7LrSYbYLi6LOwUc2J1gljcJ2FdNTBYtEHARXIDmLc0CelczlYWdAnpXJ9iKyw2xK2L2PMoQ26Nlba+AA7tXzPoWAfuqRcmaJQIugkvUvKdVQO9qlbKuV0Dv6hVbb70hdj3LricZYru4LO4UcGB3glneJGBfNTFZtEDARXABmrc0C+hdzVQWdgroXZ1gKy43xK6I2fMoQ2yPlrW9Ag7sXjHrWwTsqxYla5YIuAguUfOeVgG9q1XKul4BvatXbL31htj1LLueZIjt4rK4U8CB3QlmeZOAfdXEZNECARfBBWje0iygdzVTWdgpoHd1gq243BC7ImbPowyxPVrW9go4sHvFrG8RsK9alKxZIuAiuETNe1oF9K5WKet6BfSuXrH11hti17PsepIhtovL4k4BB3YnmOVNAvZVE5NFCwRcBBegeUuzgN7VTGVhp4De1Qm24nJD7IqYPY8yxPZoWdsr4MDuFbO+RcC+alGyZomAi+ASNe9pFdC7WqWs6xXQu3rF1ltviF3PsutJhtguLos7BRzYnWCWNwnYV01MFi0QcBFcgOYtzQJ6VzOVhZ0Celcn2IrLDbErYvY8yhDbo2Vtr4ADu1fM+hYB+6pFyZolAi6CS9S8p1VA72qVsq5XQO/qFVtvvSF2PcuuJxliu7gs7hRwYHeCWd4kYF81MVm0QMBFcAGatzQL6F3NVBZ2CuhdnWArLjfErojZ8yhDbI+Wtb0CDuxeMetbBOyrFiVrlgi4CC5R855WAb2rVcq6XgG9q1dsvfWG2PUsu55kiO3isrhTwIHdCWZ5k4B91cRk0QIBF8EFaN7SLKB3NVNZ2Cmgd3WCrbjcELsiZs+jDLE9Wtb2Cjiwe8WsbxGwr1qUrFki4CK4RM17WgX0rlYp63oF9K5esfXWG2LXs+x6kiG2i8viTgEHdieY5U0C9lUTk0ULBFwEF6B5S7OA3tVMZWGngN7VCbbickPsipg9jzLE9mhZ2yvgwO4Vs75FwL5qUbJmiYCL4BI172kV0LtapazrFdC7esXWW2+IXc+y60mG2C4uizsFHNidYJY3CdhXTUwWLRBwEVyA5i3NAnpXM5WFnQJ6VyfYissNsSti9jzKENujZW2vgAO7V8z6FgH7qkXJmiUCLoJL1LynVUDvapWyrldA7+oVW2+9IXY9y64nGWK7uCzuFHBgd4JZ3iRgXzUxWbRAwEVwAZq3NAvoXc1UFnYK6F2dYCsuN8SuiNnzKENsj5a1vQIO7F4x61sE7KsWJWuWCLgILlHznlYBvatVyrpeAb2rV2y99YbY9Sy7nmSI7eKyuFPAgd0JZnmTgH3VxGTRAgEXwQVo3tIsoHc1U1nYKaB3dYKtuNwQuyJmz6MMsT1a1vYKOLB7xaxvEbCvWpSsWSLgIrhEzXtaBfSuVinregX0rl6x9dYbYtez7HqSIbaLy+JOAQd2J5jlTQL2VROTRQsEXAQXoHlLs4De1UxlYaeA3tUJtuJyQ+yKmD2PMsT2aFnbK+DA7hWzvkXAvmpRsmaJgIvgEjXvaRXQu1qlrOsV0Lt6xdZbb4hdz7LrSYbYLi6LOwUc2J1gljcJ2FdNTBYtEHARXIDmLc0CelczlYWdAnpXJ9iKyw2xK2L2PMoQ26Nlba+AA7tXzPoWAfuqRcmaJQIugkvUvKdVQO9qlbKuV0Dv6hVbb70hdj3LricZYru4LO4UcGB3glneJGBfNTFZtEDARXABmrc0C+hdzVQWdgroXZ1gKy43xK6I2fMoQ2yPlrW9Ag7sXjHrWwTsqxYla5YIuAguUfOeVgG9q1XKul4BvatXbL31htj1LLueZIjt4rK4U8CB3QlmeZOAfdXEZNECARfBBWje0iygdzVTWdgpoHd1gq243BC7ImbPowyxPVrW9go4sHvFrG8RsK9alKxZIuAiuETNe1oF9K5WKet6BfSuXrH11hti17PsepIhtovL4k4BB3YnmOVNAvZVE5NFCwRcBBegeUuzgN7VTGVhp4De1Qm24vLoIfbq6uoL0zT9apqmrx2Z/mKapu9dX1//+dT56urqw2maPjj8991u992PP/7450vqYYhdouY9rQIO7FYp63oE7KseLWt7BFwEe7Ss7RXQu3rFrG8V0LtapdZfFzvEXl1dvTNN0892u93/OgyiR0Ptf97v99+4ubn55EB+N8C+P03TN6+vrz997733vv7q1auPlg6yhtj1N7Mn/k3AgW03bCFgX22h6pm3Ai6C9sGWAnrXlrrZz9a76uqfPsS+czuQHvM/f/78q7vd7tfTNP3y+vr6B7evHQbWZ8+evf/y5cvfnAy23zodeFvKaYhtUbJmqYADe6mc950TsK/sj60EXAS3kvXcWwG9yz7YSkDv2kp2/rmxQ+xDNEffjf3oMMSefhf28N7HfDfWEDu/Oa1YLuDAXm7nnQ8L2Fd2x1YCLoJbyXquIdYe2FJA79pS9/yzDbEnPqdD7H1D7eEt933XtrWUhthWKeuWCBg2lqh5z5yAfTUn5PWlAi6CS+W8r0VA72pRsmaJgN61RG2d9xhiTxxPv7t6blA9GnB/+9Avg3qoTIbYdTawp9wv4MC2M7YQsK+2UPXMWwEXQftgSwG9a0vd7GfrXXX1N8Qe2R8NrP92+AVOh/+22+1+dPqbiOeG2Kurq/1Dpf3yl7/8/3//+9//3U9/+tO66otMgAABAgQIECBAgMBSgY+maXr/xYsXZqqlggvfB/wO7vAd2Nv/e/wLnB4zxD5//vwfH6rLu++++/3bIfYnP/nJPy2snbcReFBgt9v9wzRNH+33+9e/iAwXgccK2FePFfT+hwR2u93Xby+C+/3emWibrC6gd61O6oF3AofeZYgdvyUMsdM0Hf3919+d/qbhxh8nfv1LoFpL6MeJW6WsWyLgR6eWqHnPnIB9NSfk9aUCfiRvqZz3tQjoXS1K1iwR0LuWqK3znugh9vC3Yqdp+vY0Tb+479+1nvvFTudemyuPIXZOyOuPEXBgP+zaR8IAACAASURBVEbPex8SsK/sja0EXAS3kvXcWwG9yz7YSkDv2kp2/rnpQ+yH0zR9ME3Tjw9/TueU7GjQvX3pe9fX138+rHno78fOs0+TIbZFyZqlAg7spXLed07AvrI/thJwEdxK1nMNsfbAlgJ615a6558dO8T2/HmcFy9efGe/3//w9EeNH/r7sS3lNMS2KFmzVMCwsVTO+wyx9kCFgItghXpOTGdiTq1HZ6p3jRb/W7zYIbbnu6hH3439yuG3Fve8/77yGmLrNn1CZAd2QpXH52hfjTdPiegimFLpmjz1rhr3hKh6V12VY4fYu++u/vMZ+jd+ydPJv5+9fdtnfglUTxkNsT1a1vYKOLB7xaxvEbCvWpSsWSLgIrhEzXtaBfSuVinregX0rl6x9dbHDrHrES57kiF2mZt3tQk4sNucrOoTsK/6vKxuF3ARbLeysl9A7+o38442Ab2rzWmLVYbYLVQbnmmIbUCyZLGAA3sxnTeeEbCvbI+tBFwEt5L13FsBvcs+2EpA79pKdv65hth5o01WGGI3YfXQOwEHtq2whYB9tYWqZ94KuAjaB1sK6F1b6mY/W++qq78htsjeEFsEHxLWgR1S6MFp2leDwYPCuQgGFbsgVb2rAD0kpN5VV2hDbJG9IbYIPiSsAzuk0IPTtK8GgweFcxEMKnZBqnpXAXpISL2rrtCG2CJ7Q2wRfEhYB3ZIoQenaV8NBg8K5yIYVOyCVPWuAvSQkHpXXaENsUX2htgi+JCwDuyQQg9O074aDB4UzkUwqNgFqepdBeghIfWuukIbYovsDbFF8CFhHdghhR6cpn01GDwonItgULELUtW7CtBDQupddYU2xBbZG2KL4EPCOrBDCj04TftqMHhQOBfBoGIXpKp3FaCHhNS76gptiC2yN8QWwYeEdWCHFHpwmvbVYPCgcC6CQcUuSFXvKkAPCal31RXaEFtkb4gtgg8J68AOKfTgNO2rweBB4VwEg4pdkKreVYAeElLvqiu0IbbI3hBbBB8S1oEdUujBadpXg8GDwrkIBhW7IFW9qwA9JKTeVVdoQ2yRvSG2CD4krAM7pNCD07SvBoMHhXMRDCp2Qap6VwF6SEi9q67Qhtgie0NsEXxIWAd2SKEHp2lfDQYPCuciGFTsglT1rgL0kJB6V12hDbFF9obYIviQsA7skEIPTtO+GgweFM5FMKjYBanqXQXoISH1rrpCG2KL7A2xRfAhYR3YIYUenKZ9NRg8KJyLYFCxC1LVuwrQQ0LqXXWFNsQW2Rtii+BDwjqwQwo9OE37ajB4UDgXwaBiF6SqdxWgh4TUu+oKbYgtsjfEFsGHhHVghxR6cJr21WDwoHAugkHFLkhV7ypADwmpd9UV2hBbZG+ILYIPCevADin04DTtq8HgQeFcBIOKXZCq3lWAHhJS76ortCG2yN4QWwQfEtaBHVLowWnaV4PBg8K5CAYVuyBVvasAPSSk3lVXaENskb0htgg+JKwDO6TQg9O0rwaDB4VzEQwqdkGqelcBekhIvauu0IbYIntDbBF8SFgHdkihB6dpXw0GDwrnIhhU7IJU9a4C9JCQelddoQ2xRfaG2CL4kLAO7JBCD07TvhoMHhTORTCo2AWp6l0F6CEh9a66Qhtii+wNsUXwIWEd2CGFHpymfTUYPCici2BQsQtS1bsK0ENC6l11hTbEFtkbYovgQ8I6sEMKPThN+2oweFA4F8GgYhekqncVoIeE1LvqCm2ILbI3xBbBh4R1YIcUenCa9tVg8KBwLoJBxS5IVe8qQA8JqXfVFdoQW2RviC2CDwnrwA4p9OA07avB4EHhXASDil2Qqt5VgB4SUu+qK7QhtsjeEFsEHxLWgR1S6MFp2leDwYPCuQgGFbsgVb2rAD0kpN5VV2hDbJG9IbYIPiSsAzuk0IPTtK8GgweFcxEMKnZBqnpXAXpISL2rrtCG2CJ7Q2wRfEhYB3ZIoQenaV8NBg8K5yIYVOyCVPWuAvSQkHpXXaENsUX2htgi+JCwDuyQQg9O074aDB4UzkUwqNgFqepdBeghIfWuukIbYovsDbFF8CFhHdghhR6cpn01GDwonItgULELUtW7CtBDQupddYU2xBbZG2KL4EPCOrBDCj04TftqMHhQOBfBoGIXpKp3FaCHhNS76gptiC2yN8QWwYeEdWCHFHpwmvbVYPCgcC6CQcUuSFXvKkAPCal31RXaEFtkb4gtgg8J68AOKfTgNO2rweBB4VwEg4pdkKreVYAeElLvqiu0IbbI3hBbBB8S1oEdUujBadpXg8GDwrkIBhW7IFW9qwA9JKTeVVdoQ2yRvSG2CD4krAM7pNCD07SvBoMHhXMRDCp2Qap6VwF6SEi9q67Qhtgie0NsEXxIWAd2SKEHp2lfDQYPCuciGFTsglT1rgL0kJB6V12hDbFF9obYIviQsA7skEIPTtO+GgweFM5FMKjYBanqXQXoISH1rrpCG2KL7A2xRfAhYR3YIYUenKZ9NRg8KJyLYFCxC1LVuwrQQ0LqXXWFNsQW2Rtii+BDwjqwQwo9OE37ajB4UDgXwaBiF6SqdxWgh4TUu+oKbYgtsjfEFsGHhHVghxR6cJr21WDwoHAugkHFLkhV7ypADwmpd9UV2hBbZG+ILYIPCevADin04DTtq8HgQeFcBIOKXZCq3lWAHhJS76ortCG2yN4QWwQfEtaBHVLowWnaV4PBg8K5CAYVuyBVvasAPSSk3lVXaENskb0htgg+JKwDO6TQg9O0rwaDB4VzEQwqdkGqelcBekhIvauu0IbYIntDbBF8SFgHdkihB6dpXw0GDwrnIhhU7IJU9a4C9JCQelddoQ2xRfaG2CL4kLAO7JBCD07TvhoMHhTORTCo2AWp6l0F6CEh9a66Qhtii+wNsUXwIWEd2CGFHpymfTUYPCici2BQsQtS1bsK0ENC6l11hTbEFtkbYovgQ8I6sEMKPThN+2oweFA4F8GgYhekqncVoIeE1LvqCm2ILbI3xBbBh4R1YIcUenCa9tVg8KBwLoJBxS5IVe8qQA8JqXfVFdoQW2RviC2CDwnrwA4p9OA07avB4EHhXASDil2Qqt5VgB4SUu+qK7QhtsjeEFsEHxLWgR1S6MFp2leDwYPCuQgGFbsgVb2rAD0kpN5VV2hDbJG9IbYIPiSsAzuk0IPTtK8GgweFcxEMKnZBqnpXAXpISL2rrtCG2CJ7Q2wRfEhYB3ZIoQenaV8NBg8K5yIYVOyCVPWuAvSQkHpXXaENsUX2htgi+JCwDuyQQg9O074aDB4UzkUwqNgFqepdBeghIfWuukIbYovsDbFF8CFhHdghhR6cpn01GDwonItgULELUtW7CtBDQupddYU2xBbZG2KL4EPCOrBDCj04TftqMHhQOBfBoGIXpKp3FaCHhNS76gptiC2yN8QWwYeEdWCHFHpwmvbVYPCgcC6CQcUuSFXvKkAPCal31RXaEFtkb4gtgg8J68AOKfTgNO2rweBB4VwEg4pdkKreVYAeElLvqiu0IbbI3hBbBB8S1oEdUujBadpXg8GDwrkIBhW7IFW9qwA9JKTeVVdoQ2yRvSG2CD4krAM7pNCD07SvBoMHhXMRDCp2Qap6VwF6SEi9q67Qhtgie0NsEXxIWAd2SKEHp2lfDQYPCuciGFTsglT1rgL0kJB6V12hDbFF9obYIviQsA7skEIPTtO+GgweFM5FMKjYBanqXQXoISH1rrpCG2KL7A2xRfAhYR3YIYUenKZ9NRg8KJyLYFCxC1LVuwrQQ0LqXXWFNsQW2Rtii+BDwjqwQwo9OE37ajB4UDgXwaBiF6SqdxWgh4TUu+oKbYgtsjfEFsGHhHVghxR6cJr21WDwoHAugkHFLkhV7ypADwmpd9UV2hBbZG+ILYIPCevADin04DTtq8HgQeFcBIOKXZCq3lWAHhJS76ortCG2yN4QWwQfEtaBHVLowWnaV4PBg8K5CAYVuyBVvasAPSSk3lVXaENskb0htgg+JKwDO6TQg9O0rwaDB4VzEQwqdkGqelcBekhIvauu0IbYIntDbBF8SFgHdkihB6dpXw0GDwrnIhhU7IJU9a4C9JCQelddoQ2xRfaG2CL4kLAO7JBCD07TvhoMHhTORTCo2AWp6l0F6CEh9a66Qhtii+wNsUXwIWEd2CGFHpymfTUYPCici2BQsQtS1bsK0ENC6l11hTbEFtkbYovgQ8I6sEMKPThN+2oweFA4F8GgYhekqncVoIeE1LvqCm2ILbI3xBbBh4R1YIcUenCa9tVg8KBwLoJBxS5IVe8qQA8JqXfVFdoQW2RviC2CDwnrwA4p9OA07avB4EHhXASDil2Qqt5VgB4SUu+qK7QhtsjeEFsEHxLWgR1S6MFp2leDwYPCuQgGFbsgVb2rAD0kpN5VV2hDbJG9IbYIPiSsAzuk0IPTtK8GgweFcxEMKnZBqnpXAXpISL2rrtCG2CJ7Q2wRfEhYB3ZIoQenaV8NBg8K5yIYVOyCVPWuAvSQkHpXXaENsUX2htgi+JCwDuyQQg9O074aDB4UzkUwqNgFqepdBeghIfWuukIbYovsDbFF8CFhHdghhR6cpn01GDwonItgULELUtW7CtBDQupddYU2xBbZG2KL4EPCOrBDCj04TftqMHhQOBfBoGIXpKp3FaCHhNS76gptiC2yN8QWwYeEdWCHFHpwmvbVYPCgcC6CQcUuSFXvKkAPCal31RXaEFtkb4gtgg8J68AOKfTgNO2rweBB4VwEg4pdkKreVYAeElLvqiu0IbbI3hBbBB8S1oEdUujBadpXg8GDwrkIBhW7IFW9qwA9JKTeVVdoQ2yRvSG2CD4krAM7pNCD07SvBoMHhXMRDCp2Qap6VwF6SEi9q67Qhtgie0NsEXxIWAd2SKEHp2lfDQYPCuciGFTsglT1rgL0kJB6V12hDbFF9obYIviQsA7skEIPTtO+GgweFM5FMKjYBanqXQXoISH1rrpCG2KL7A2xRfAhYR3YIYUenKZ9NRg8KJyLYFCxC1LVuwrQQ0LqXXWFNsQW2Rtii+BDwjqwQwo9OE37ajB4UDgXwaBiF6SqdxWgh4TUu+oKbYgtsjfEFsGHhHVghxR6cJr21WDwoHAugkHFLkhV7ypADwmpd9UV2hBbZG+ILYIPCevADin04DTtq8HgQeFcBIOKXZCq3lWAHhJS76ortCG2yN4QWwQfEtaBHVLowWnaV4PBg8K5CAYVuyBVvasAPSSk3lVXaENskb0htgg+JKwDO6TQg9O0rwaDB4VzEQwqdkGqelcBekhIvauu0IbYIntDbBF8SFgHdkihB6dpXw0GDwrnIhhU7IJU9a4C9JCQelddoQ2xRfaG2CL4kLAO7JBCD07TvhoMHhTORTCo2AWp6l0F6CEh9a66Qhtii+wNsUXwIWEd2CGFHpymfTUYPCici2BQsQtS1bsK0ENC6l11hTbEFtkbYovgQ8I6sEMKPThN+2oweFA4F8GgYhekqncVoIeE1LvqCm2ILbI3xBbBh4R1YIcUenCa9tVg8KBwLoJBxS5IVe8qQA8JqXfVFdoQW2RviC2CDwnrwA4p9OA07avB4EHhXASDil2Qqt5VgB4SUu+qK7QhtsjeEFsEHxLWgR1S6MFp2leDwYPCuQgGFbsgVb2rAD0kpN5VV2hDbJG9IbYIPiSsAzuk0IPTtK8GgweFcxEMKnZBqnpXAXpISL2rrtCG2CJ7Q2wRfEhYB3ZIoQenaV8NBg8K5yIYVOyCVPWuAvSQkHpXXaENsUX2htgi+JCwDuyQQg9O074aDB4UzkUwqNgFqepdBeghIfWuukIbYovsDbFF8CFhHdghhR6cpn01GDwonItgULELUtW7CtBDQupddYU2xBbZG2KL4EPCOrBDCj04TftqMHhQOBfBoGIXpKp3FaCHhNS76gptiC2yN8QWwYeEdWCHFHpwmvbVYPCgcC6CQcUuSFXvKkAPCal31RXaEFtkb4gtgg8J68AOKfTgNO2rweBB4VwEg4pdkKreVYAeElLvqiu0IbbI3hBbBB8S1oEdUujBadpXg8GDwrkIBhW7IFW9qwA9JKTeVVdoQ2yRvSG2CD4krAM7pNCD07SvBoMHhXMRDCp2Qap6VwF6SEi9q67Qhtgie0NsEXxIWAd2SKEHp2lfDQYPCuciGFTsglT1rgL0kJB6V12hDbFF9obYIviQsA7skEIPTtO+GgweFM5FMKjYBanqXQXoISH1rrpCG2KL7A2xRfAhYR3YIYUenKZ9NRg8KJyLYFCxC1LVuwrQQ0LqXXWFNsQW2Rtii+BDwjqwQwo9OE37ajB4UDgXwaBiF6SqdxWgh4TUu+oKbYgtsjfEFsGHhHVghxR6cJr21WDwoHAugkHFLkhV7ypADwmpd9UV2hBbZG+ILYIPCevADin04DTtq8HgQeFcBIOKXZCq3lWAHhJS76ortCG2yN4QWwQfEtaBHVLowWnaV4PBg8K5CAYVuyBVvasAPSSk3lVXaENskb0htgg+JKwDO6TQg9O0rwaDB4VzEQwqdkGqelcBekhIvauu0IbYIntDbBF8SFgHdkihB6dpXw0GDwrnIhhU7IJU9a4C9JCQelddoQ2xRfaG2CL4kLAO7JBCD07TvhoMHhTORTCo2AWp6l0F6CEh9a66Qhtii+wNsUXwIWEd2CGFHpymfTUYPCici2BQsQtS1bsK0ENC6l11hTbEFtkbYovgQ8I6sEMKPThN+2oweFA4F8GgYhekqncVoIeE1LvqCm2ILbI3xBbBh4R1YIcUenCa9tVg8KBwLoJBxS5IVe8qQA8JqXfVFdoQW2RviC2CDwnrwA4p9OA07avB4EHhXASDil2Qqt5VgB4SUu+qK7QhtsjeEFsEHxLWgR1S6MFp2leDwYPCuQgGFbsgVb2rAD0kpN5VV2hDbJG9IbYIPiSsAzuk0IPTtK8GgweFcxEMKnZBqnpXAXpISL2rrtCG2CJ7Q2wRfEhYB3ZIoQenaV8NBg8K5yIYVOyCVPWuAvSQkHpXXaENsUX2htgi+JCwDuyQQg9O074aDB4UzkUwqNgFqepdBeghIfWuukIbYovsDbFF8CFhHdghhR6cpn01GDwonItgULELUtW7CtBDQupddYU2xBbZG2KL4EPCOrBDCj04TftqMHhQOBfBoGIXpKp3FaCHhNS76gptiC2yN8QWwYeEdWCHFHpwmvbVYPCgcC6CQcUuSFXvKkAPCal31RXaEFtkb4gtgg8J68AOKfTgNO2rweBB4VwEg4pdkKreVYAeElLvqiu0IbbI3hBbBB8S1oEdUujBadpXg8GDwrkIBhW7IFW9qwA9JKTeVVdoQ2yRvSG2CD4krAM7pNCD07SvBoMHhXMRDCp2Qap6VwF6SEi9q67Qhtgie0NsEXxIWAd2SKEHp2lfDQYPCuciGFTsglT1rgL0kJB6V12hDbFF9obYIviQsA7skEIPTtO+GgweFM5FMKjYBanqXQXoISH1rrpCG2KL7A2xRfAhYR3YIYUenKZ9NRg8KJyLYFCxC1LVuwrQQ0LqXXWFNsQW2Rtii+BDwjqwQwo9OE37ajB4UDgXwaBiF6SqdxWgh4TUu+oKbYgtsjfEFsGHhHVghxR6cJr21WDwoHAugkHFLkhV7ypADwmpd9UV2hBbZG+ILYIPCevADin04DTtq8HgQeFcBIOKXZCq3lWAHhJS76ortCG2w/7q6urDaZo+OLxlt9t99+OPP/55xyNeLzXELlHznlYBB3arlHU9AvZVj5a1PQIugj1a1vYK6F29Yta3CuhdrVLrrzPENpreDbDvT9P0zevr60/fe++9r7969eqjpYOsIbYR3rJFAg7sRWzeNCNgX9kiWwm4CG4l67m3AnqXfbCVgN61lez8cw2x80bTYWB99uzZ+y9fvvzN4S13g+239vv9N25ubj5peNTrJYbYHi1rewUc2L1i1rcI2FctStYsEXARXKLmPa0CelerlHW9AnpXr9h66w2xDZan34U9vOUx3401xDbAW7JYwIG9mM4bzwjYV7bHVgIuglvJeu6tgN5lH2wloHdtJTv/XEPsjNHV1dUXpmn61TRNH11fX//gePnz58+/utvtfj1N0y9PX5ujN8TOCXn9MQIO7Mfoee9DAvaVvbGVgIvgVrKea4i1B7YU0Lu21D3/bEPsjP25QfVowP3tNE3fu76+/nNrKQ2xrVLWLREwbCxR8545AftqTsjrSwVcBJfKeV+LgN7VomTNEgG9a4naOu8xxDYOsbvd7kenv4l4boi9urrar1MmTyFAgAABAgQIECBA4BIFrq+vzVSDCwN8wyH2+fPn//jQ4z//+c9//09/+tPfPX/+/KPBNRcuQODm5ub9L37xi//6pS996V8D0pXiIAH7ahB0YJg//OEPf//HP/7x752JgcUfkLLeNQA5NMShdxlix28AQ2zjEHvfv3s99+9l50p5O+Dudrt/sOnnpLy+ROD2pwD2+/0/3dzcPPiFlCXP9Z5sAfsqu/5bZu9M3FLXs/Uue2ArAb1rK9n55xpiZ4zODaqG2PkNZkWNgAO7xv1tj2pfve0VrsvPRbDOPiGy3pVQ5Zoc9a4a99uohtj5IfadaZp+drfsjV/e9NDfj20pp03fomTNUgEH9lI57zsnYF/ZH1sJOBO3kvXcWwG9yz7YSkDv2kp2/rmG2Hmj6cWLF9/Z7/c/3O/337i5ufnk8JaH/n5swyMnm75FyZqlAg7spXLeZ4i1ByoEnIkV6jkxnYk5tR6dqd41Wvxv8QyxDfZXV1eH78Z+ZZqmb15fX3/6mO/C3oa06RvgLVks4MBeTOeNZwTsK9tjKwFn4laynnsroHfZB1sJ6F1byc4/1xA7b/TXFUeD7Lfv3vK70+/MNj7qr8sOv7nYL97pUbO2VcD+apWyrkfAvurRsrZHwN7q0bK2V8D+6hWzvlXA3mqVWn+dIXZ9U08kQIAAAQIECBAgQIAAgY0EDLEbwXosAQIECBAgQIAAAQIECKwvYIhd39QTCRAgQIAAAQIECBAgQGAjAUPsRrAeS4AAAQIECBAgQIAAAQLrCxhi1zf1RAIECBAgQIAAAQIECBDYSMAQuxGsxxIgQIAAAQIECBAgQIDA+gKG2PVNPZEAAQIECBAgQIAAAQIENhIwxG4E+9Bj33vvva+/evXqo6PXfzFN0/eur6//PPijCPdEBZ4/f/7V3W7362ma3j1K4cfX19c/OE3pnr9vPD179uz9ly9f/uaJpu9jDxR48eLFd/b7/T9P0/TQ/vpwmqYPDh9pt9t99+OPP/75wI8o1BMTuLq6+sI0Tb+apulrdx/93jPw6urK3npita38uPecdb/b7/ffuLm5+eT0c7mHVVbqacQ+2k//77671W0WrfvIPWy7mhtit7P9zJMPG/4wRBwd5r81yA4sxBMOddgzz549++AwiB4Ntf82TdM3r6+vP71N8ahx3v7fv36h5DCUGGSf8CYY9NFPvljymSH2bsh4/7DnDv3NIDuoQE8wzH175Pa/7ff7rxx/8cPeeoLFLfzI992lHjrr3MMKC/UEQt8zcN77BdzWfeQetm3RDbHb+r5++lGT/ej4qzoufoMK8JaEuWuI7xwG1UNa9+2ju0P8h8dfjT5qqF85HnjfEh5prChw8p2wNw7y0wP8EPbuPd966DsgK348j3piAocvijx79uy/nftJEHvriRX2Aj7uzFn3+ou47mEXUKwL/gh3vedfbs+v24959xNvvzz9TmzPPnIP27bghthtfV8//czBfPjRKt+NHVSLtzHM4YK42+1+dPsdjfu++nfI23dj38YdsG5ORz8m9f1pmv77NE1vHOSn3yk798WUdT+Zpz1Vgbs981/mfurI3nqqFa773A998eyh7+if/iSSn4qrq92lRj76SaTPDLGt9/m73H52979v/LNB97B1Km+IXcdx9ikPHcy+MzZLZ0GDwOkQe/r/jx/hu/8NoMFLjr/KvN/v/+X0q9EPfRX6luzcwR9MGp/6Yc/sdrv/ee7fTNtb8VtlEcB9A8F9X8h1D1vEG/mmc2dZ6z7a7/f/6fb8PHxzwT1s/a1kiF3f9DNPnBtU/QjegCK85SFOD/Fzg6pB4y3fDI9M7/iAPhzCx9+JnTnc/WTJI/3fxrcff+fi1atXtz+qd+8vA7O33sbqb5/TfXes0x/jdA/bvg5vU4SHelHPPvrc5z73xdtf5Hrf74lwD1tntxhi13E8+5RzP9p5+0ZD7IAivMUhjn708/Vv+Xzox118t+wt3ggrpHa6b+47aM99l9+P5a1QhLfwEce/xfP4Qnf44tvhv9lbb2HxB6U099uJ3cMGFeItCdMwxN5m+pm/LHJ8nz8Msff9Ik1D7DobxRC7jqMhdoCjEJ8VOPoTKG/8OQFDrN3SK3BuYL3vO7H3/YiUIbZXPWP9UZ9648/pnH5X49yP39lbGXtlSZZHXyR5/QvoTv+bIXaJbO57DLFPo/aG2AF1avzxg9d/qmLARxLiiQucfNX5/5z+puGWHye+bwh54iw+/kKBhwaE1sH2EPbcv2lc+NG87S0QOP2O63FKx/8U4i9/+csfe38j6FvAI4VHCJz74sbx3nr16tXLaZpuf8nOvb+Z/6F/5/iIj+atT1igYYid3UfPnj37r3M/Tuwe9rhNYoh9nF/zu881SM2zmdHC//jx88O/O/zaNE33/g2zcz+Wd+41wJkCR98pmwP48TRN/2Oapl9N0/TGnwu7faMhdo4v8/VzX1Q7GTT+r72VuUeWZt3yBdvDT5K4hy1Vznvfkl/sdHcGfjhN01+/KXXuJ0vcw9bZU4bYdRxnn3Lf34py6Ztls+BE4Pg7sPf9soDD8nPDxEN7ETaBU4H7DvJzP5Z37sfY6eYKnLsQHvej3W73u7vvlt1ivfHvzeyt3P1zLvOeIdY9zB5qFWjtWTc3N588dO9yD2vVXr7OELvcruudD33VLAWY7gAABk1JREFUxcHcxRi/uOfP49z3Vee5fxcUDwzgDYGHDvIzl8HXX4W+vr7+FCeBuy/WvnPfj3Le14/sLXumR6D1x4lfvnz5G/ewHtnsteeG2J595B627T4yxG7r+8bTT/8Mih+9G4j/loTq+S7qfYd7z/vfEjJpPEKg598F+YLcI6AD3nrfXrqvH933OyTsrYAN8ogU7/vi7tF++9/H39V3D3sEdNBb5357cOs+cg/bdtMYYrf1/czTT//t2bkfCR380YR7AgJ3X9V7/TcW7/nIb/ySp5N/P3u7/DO/BOoJpO0jFgnM/Lugw3fXvn338d74DdlFH1nYCxZo7Udzfy7lglP00YoEjnrVu4eP8ND9yj2sqEhPKOzcEHubSus+au17T4jnYj6qIfZiSuGDECBAgAABAgQIECBAgMCcgCF2TsjrBAgQIECAAAECBAgQIHAxAobYiymFD0KAAAECBAgQIECAAAECcwKG2DkhrxMgQIAAAQIECBAgQIDAxQgYYi+mFD4IAQIECBAgQIAAAQIECMwJGGLnhLxOgAABAgQIECBAgAABAhcjYIi9mFL4IAQIECBAgAABAgQIECAwJ2CInRPyOgECBAgQIECAAAECBAhcjIAh9mJK4YMQIECAAAECBAgQIECAwJyAIXZOyOsECBAgQIAAAQIECBAgcDEChtiLKYUPQoAAAQIECBAgQIAAAQJzAobYOSGvEyBAgAABAgQIECBAgMDFCBhiL6YUPggBAgQIECBAgAABAgQIzAkYYueEvE6AAAECBAgQIECAAAECFyNgiL2YUvggBAgQIECAAAECBAgQIDAnYIidE/I6AQIECBAgQIAAAQIECFyMgCH2YkrhgxAgQIAAAQIECBAgQIDAnIAhdk7I6wQIECBAgAABAgQIECBwMQKG2IsphQ9CgAABAgQIECBAgAABAnMChtg5Ia8TIECAAAECBAgQIECAwMUIGGIvphQ+CAECBAgQIECAAAECBAjMCRhi54S8ToAAAQIECBAgQIAAAQIXI2CIvZhS+CAECBAgQIAAAQIECBAgMCdgiJ0T8joBAgQIECBAgAABAgQIXIyAIfZiSuGDECBAgAABAgQIECBAgMCcgCF2TsjrBAgQIECAAAECBAgQIHAxAobYiymFD0KAAAECBAgQIECAAAECcwKG2DkhrxMgQIAAAQIECBAgQIDAxQgYYi+mFD4IAQIECBAgQIAAAQIECMwJGGLnhLxOgAABAgQIECBAgAABAhcjYIi9mFL4IAQIECBAgAABAgQIECAwJ2CInRPyOgECBAgQIECAAAECBAhcjIAh9mJK4YMQIECAAAECBAgQIECAwJyAIXZOyOsECBAgQIAAAQIECBAgcDEChtiLKYUPQoAAAQIECBAgQIAAAQJzAobYOSGvEyBAgAABAgQIECBAgMDFCBhiL6YUPggBAgQIECBAgAABAgQIzAkYYueEvE6AAAECBAgQIECAAAECFyNgiL2YUvggBAgQIECAAAECBAgQIDAnYIidE/I6AQIECBAgQIAAAQIECFyMgCH2YkrhgxAgQIAAAQIECBAgQIDAnIAhdk7I6wQIECBAgAABAgQIECBwMQKG2IsphQ9CgAABAgQIECBAgAABAnMChtg5Ia8TIECAAAECBAgQIECAwMUIGGIvphQ+CAECBAgQIECAAAECBAjMCRhi54S8ToAAAQIECBAgQIAAAQIXI2CIvZhS+CAECBAgQIAAAQIECBAgMCdgiJ0T8joBAgQIECBAgAABAgQIXIyAIfZiSuGDECBAgAABAgQIECBAgMCcgCF2TsjrBAgQIECAAAECBAgQIHAxAobYiymFD0KAAAECBAgQIECAAAECcwKG2DkhrxMgQIAAAQIECBAgQIDAxQgYYi+mFD4IAQIECBAgQIAAAQIECMwJGGLnhLxOgAABAgQIECBAgAABAhcjYIi9mFL4IAQIECBAgAABAgQIECAwJ2CInRPyOgECBAgQIECAAAECBAhcjIAh9mJK4YMQIECAAAECBAgQIECAwJyAIXZOyOsECBAgQIAAAQIECBAgcDEChtiLKYUPQoAAAQIECBAgQIAAAQJzAobYOSGvEyBAgAABAgQIECBAgMDFCBhiL6YUPggBAgQIECBAgAABAgQIzAn8O3qx0H09k/VxAAAAAElFTkSuQmCC"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3657600" y="2133600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1194,9 +1290,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AS51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K34" sqref="K34:AD34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -1422,10 +1518,10 @@
       <c r="AS4" s="10"/>
     </row>
     <row r="5" spans="1:45" ht="39" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="38" t="s">
         <v>118</v>
       </c>
       <c r="D5" s="3"/>
@@ -1482,8 +1578,8 @@
       <c r="AS5" s="10"/>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="3" t="s">
         <v>119</v>
       </c>
@@ -1540,8 +1636,8 @@
       <c r="AS6" s="10"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="3" t="s">
         <v>120</v>
       </c>
@@ -1641,13 +1737,13 @@
       <c r="AS8" s="10"/>
     </row>
     <row r="10" spans="1:45" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="38" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="3"/>
@@ -1663,55 +1759,55 @@
       <c r="H10" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
       <c r="M10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="28" t="s">
+      <c r="N10" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O10" s="28"/>
+      <c r="O10" s="31"/>
       <c r="P10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Q10" s="28" t="s">
+      <c r="Q10" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="R10" s="28"/>
+      <c r="R10" s="31"/>
       <c r="S10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="28" t="s">
+      <c r="T10" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="U10" s="28"/>
+      <c r="U10" s="31"/>
       <c r="V10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="W10" s="28" t="s">
+      <c r="W10" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="X10" s="28"/>
+      <c r="X10" s="31"/>
       <c r="Y10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Z10" s="28" t="s">
+      <c r="Z10" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="AA10" s="28"/>
+      <c r="AA10" s="31"/>
       <c r="AB10" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="3" t="s">
         <v>68</v>
       </c>
@@ -1789,9 +1885,9 @@
       </c>
     </row>
     <row r="12" spans="1:45" ht="24" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="3" t="s">
         <v>6</v>
       </c>
@@ -1830,17 +1926,17 @@
       <c r="AA12" s="6"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
+      <c r="A13" s="28"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+      <c r="A14" s="28"/>
     </row>
     <row r="15" spans="1:45" ht="48" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="39" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="3"/>
@@ -1864,9 +1960,9 @@
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="29"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="3" t="s">
         <v>68</v>
       </c>
@@ -1890,9 +1986,9 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="24" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1913,7 +2009,7 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="28"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="E18" s="6"/>
@@ -1922,14 +2018,14 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
+      <c r="A19" s="28"/>
     </row>
     <row r="20" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="39" t="s">
         <v>82</v>
       </c>
       <c r="D20" s="3"/>
@@ -1945,27 +2041,27 @@
       <c r="H20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="I20" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="33" t="s">
+      <c r="J20" s="30"/>
+      <c r="K20" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="35"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="34"/>
       <c r="S20" s="16" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B21" s="27"/>
-      <c r="C21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="3" t="s">
         <v>68</v>
       </c>
@@ -2016,8 +2112,8 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="24" x14ac:dyDescent="0.25">
-      <c r="B22" s="27"/>
-      <c r="C22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
@@ -2046,10 +2142,10 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="39" t="s">
         <v>103</v>
       </c>
       <c r="D24" s="3"/>
@@ -2065,29 +2161,29 @@
       <c r="H24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I24" s="29" t="s">
+      <c r="I24" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="33" t="s">
+      <c r="J24" s="30"/>
+      <c r="K24" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="35"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="34"/>
       <c r="O24" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="P24" s="33" t="s">
+      <c r="P24" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="35"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="34"/>
       <c r="X24" s="8" t="s">
         <v>78</v>
       </c>
@@ -2096,8 +2192,8 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B25" s="27"/>
-      <c r="C25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="3" t="s">
         <v>68</v>
       </c>
@@ -2163,8 +2259,8 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="24" x14ac:dyDescent="0.25">
-      <c r="B26" s="27"/>
-      <c r="C26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="3" t="s">
         <v>6</v>
       </c>
@@ -2201,10 +2297,10 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:26" ht="39" x14ac:dyDescent="0.25">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="39" t="s">
         <v>100</v>
       </c>
       <c r="D29" s="3"/>
@@ -2220,36 +2316,36 @@
       <c r="H29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I29" s="29" t="s">
+      <c r="I29" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="J29" s="29"/>
+      <c r="J29" s="30"/>
       <c r="K29" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="L29" s="32" t="s">
+      <c r="L29" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="32"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
       <c r="Z29" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B30" s="27"/>
-      <c r="C30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="3" t="s">
         <v>68</v>
       </c>
@@ -2321,8 +2417,8 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="24" x14ac:dyDescent="0.25">
-      <c r="B31" s="27"/>
-      <c r="C31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="3" t="s">
         <v>6</v>
       </c>
@@ -2343,10 +2439,10 @@
       </c>
     </row>
     <row r="34" spans="2:31" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="30" t="s">
         <v>62</v>
       </c>
       <c r="D34" s="3"/>
@@ -2362,39 +2458,39 @@
       <c r="H34" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I34" s="29" t="s">
+      <c r="I34" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29" t="s">
+      <c r="J34" s="30"/>
+      <c r="K34" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="29"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="29"/>
-      <c r="AA34" s="29"/>
-      <c r="AB34" s="29"/>
-      <c r="AC34" s="29"/>
-      <c r="AD34" s="29"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="30"/>
+      <c r="AA34" s="30"/>
+      <c r="AB34" s="30"/>
+      <c r="AC34" s="30"/>
+      <c r="AD34" s="30"/>
       <c r="AE34" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B35" s="27"/>
-      <c r="C35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="30"/>
       <c r="D35" s="3" t="s">
         <v>68</v>
       </c>
@@ -2481,8 +2577,8 @@
       </c>
     </row>
     <row r="36" spans="2:31" ht="24" x14ac:dyDescent="0.25">
-      <c r="B36" s="27"/>
-      <c r="C36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
       <c r="D36" s="3" t="s">
         <v>6</v>
       </c>
@@ -2503,10 +2599,10 @@
       </c>
     </row>
     <row r="39" spans="2:31" ht="39" x14ac:dyDescent="0.25">
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="30" t="s">
         <v>65</v>
       </c>
       <c r="D39" s="3"/>
@@ -2522,17 +2618,17 @@
       <c r="H39" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I39" s="29" t="s">
+      <c r="I39" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="J39" s="29"/>
+      <c r="J39" s="30"/>
       <c r="K39" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="40" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B40" s="27"/>
-      <c r="C40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="30"/>
       <c r="D40" s="3" t="s">
         <v>67</v>
       </c>
@@ -2559,8 +2655,8 @@
       </c>
     </row>
     <row r="41" spans="2:31" ht="24" x14ac:dyDescent="0.25">
-      <c r="B41" s="27"/>
-      <c r="C41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="30"/>
       <c r="D41" s="3" t="s">
         <v>66</v>
       </c>
@@ -2581,10 +2677,10 @@
       </c>
     </row>
     <row r="44" spans="2:31" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="30" t="s">
         <v>71</v>
       </c>
       <c r="D44" s="3"/>
@@ -2600,25 +2696,25 @@
       <c r="H44" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I44" s="29" t="s">
+      <c r="I44" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="J44" s="29"/>
-      <c r="K44" s="30" t="s">
+      <c r="J44" s="30"/>
+      <c r="K44" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="L44" s="31"/>
-      <c r="M44" s="30" t="s">
+      <c r="L44" s="36"/>
+      <c r="M44" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="N44" s="31"/>
+      <c r="N44" s="36"/>
       <c r="O44" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="45" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B45" s="27"/>
-      <c r="C45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="30"/>
       <c r="D45" s="3" t="s">
         <v>67</v>
       </c>
@@ -2657,8 +2753,8 @@
       </c>
     </row>
     <row r="46" spans="2:31" ht="24" x14ac:dyDescent="0.25">
-      <c r="B46" s="27"/>
-      <c r="C46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="30"/>
       <c r="D46" s="3" t="s">
         <v>66</v>
       </c>
@@ -2679,10 +2775,10 @@
       </c>
     </row>
     <row r="49" spans="2:11" ht="39" x14ac:dyDescent="0.25">
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="30" t="s">
         <v>125</v>
       </c>
       <c r="D49" s="3"/>
@@ -2698,17 +2794,17 @@
       <c r="H49" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="I49" s="29" t="s">
+      <c r="I49" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="J49" s="29"/>
+      <c r="J49" s="30"/>
       <c r="K49" s="25" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="27"/>
-      <c r="C50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="30"/>
       <c r="D50" s="3" t="s">
         <v>67</v>
       </c>
@@ -2735,8 +2831,8 @@
       </c>
     </row>
     <row r="51" spans="2:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="B51" s="27"/>
-      <c r="C51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="30"/>
       <c r="D51" s="3" t="s">
         <v>66</v>
       </c>
@@ -2758,6 +2854,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:AD34"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="L29:Y29"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="I24:J24"/>
     <mergeCell ref="A10:A20"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="C49:C51"/>
@@ -2774,31 +2895,6 @@
     <mergeCell ref="P24:W24"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="I29:J29"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:AD34"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="L29:Y29"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B44:B46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2807,6 +2903,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E3:AZ29"/>
   <sheetViews>
@@ -2817,34 +2929,34 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="5:38" x14ac:dyDescent="0.25">
-      <c r="T3" s="29" t="s">
+      <c r="T3" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
       <c r="AB3" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="AC3" s="29" t="s">
+      <c r="AC3" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
       <c r="AG3" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="AH3" s="29" t="s">
+      <c r="AH3" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
       <c r="AL3" s="9" t="s">
         <v>88</v>
       </c>
@@ -2909,46 +3021,46 @@
       </c>
     </row>
     <row r="11" spans="5:38" x14ac:dyDescent="0.25">
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28" t="s">
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28" t="s">
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28" t="s">
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="28"/>
-      <c r="AJ11" s="28"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="31"/>
+      <c r="AE11" s="31"/>
+      <c r="AF11" s="31"/>
+      <c r="AG11" s="31"/>
+      <c r="AH11" s="31"/>
+      <c r="AI11" s="31"/>
+      <c r="AJ11" s="31"/>
     </row>
     <row r="12" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E12" s="7" t="s">
@@ -3050,30 +3162,30 @@
     </row>
     <row r="18" spans="19:52" x14ac:dyDescent="0.25">
       <c r="S18" s="9"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
       <c r="X18" s="9"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="29"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
       <c r="AC18" s="9"/>
-      <c r="AD18" s="32"/>
-      <c r="AE18" s="32"/>
-      <c r="AF18" s="32"/>
-      <c r="AG18" s="32"/>
-      <c r="AH18" s="32"/>
-      <c r="AI18" s="32"/>
-      <c r="AJ18" s="32"/>
-      <c r="AK18" s="32"/>
-      <c r="AL18" s="32"/>
-      <c r="AM18" s="32"/>
-      <c r="AN18" s="32"/>
-      <c r="AO18" s="32"/>
-      <c r="AP18" s="32"/>
-      <c r="AQ18" s="32"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="37"/>
+      <c r="AK18" s="37"/>
+      <c r="AL18" s="37"/>
+      <c r="AM18" s="37"/>
+      <c r="AN18" s="37"/>
+      <c r="AO18" s="37"/>
+      <c r="AP18" s="37"/>
+      <c r="AQ18" s="37"/>
       <c r="AR18" s="8"/>
     </row>
     <row r="19" spans="19:52" x14ac:dyDescent="0.25">
@@ -3105,53 +3217,53 @@
       <c r="AR19" s="9"/>
     </row>
     <row r="24" spans="19:52" x14ac:dyDescent="0.25">
-      <c r="S24" s="29" t="s">
+      <c r="S24" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
       <c r="AA24" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="AB24" s="29" t="s">
+      <c r="AB24" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="29"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
       <c r="AF24" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="AG24" s="29" t="s">
+      <c r="AG24" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="AH24" s="29"/>
-      <c r="AI24" s="29"/>
-      <c r="AJ24" s="29"/>
+      <c r="AH24" s="30"/>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="30"/>
       <c r="AK24" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AL24" s="32" t="s">
+      <c r="AL24" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="AM24" s="32"/>
-      <c r="AN24" s="32"/>
-      <c r="AO24" s="32"/>
-      <c r="AP24" s="32"/>
-      <c r="AQ24" s="32"/>
-      <c r="AR24" s="32"/>
-      <c r="AS24" s="32"/>
-      <c r="AT24" s="32"/>
-      <c r="AU24" s="32"/>
-      <c r="AV24" s="32"/>
-      <c r="AW24" s="32"/>
-      <c r="AX24" s="32"/>
-      <c r="AY24" s="32"/>
+      <c r="AM24" s="37"/>
+      <c r="AN24" s="37"/>
+      <c r="AO24" s="37"/>
+      <c r="AP24" s="37"/>
+      <c r="AQ24" s="37"/>
+      <c r="AR24" s="37"/>
+      <c r="AS24" s="37"/>
+      <c r="AT24" s="37"/>
+      <c r="AU24" s="37"/>
+      <c r="AV24" s="37"/>
+      <c r="AW24" s="37"/>
+      <c r="AX24" s="37"/>
+      <c r="AY24" s="37"/>
       <c r="AZ24" s="8" t="s">
         <v>78</v>
       </c>
@@ -3333,53 +3445,53 @@
       <c r="AZ27" s="2"/>
     </row>
     <row r="28" spans="19:52" x14ac:dyDescent="0.25">
-      <c r="S28" s="29" t="s">
+      <c r="S28" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
       <c r="AA28" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="AB28" s="29" t="s">
+      <c r="AB28" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="29"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="30"/>
+      <c r="AE28" s="30"/>
       <c r="AF28" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="AG28" s="29" t="s">
+      <c r="AG28" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="AH28" s="29"/>
-      <c r="AI28" s="29"/>
-      <c r="AJ28" s="29"/>
+      <c r="AH28" s="30"/>
+      <c r="AI28" s="30"/>
+      <c r="AJ28" s="30"/>
       <c r="AK28" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AL28" s="32" t="s">
+      <c r="AL28" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="AM28" s="32"/>
-      <c r="AN28" s="32"/>
-      <c r="AO28" s="32"/>
-      <c r="AP28" s="32"/>
-      <c r="AQ28" s="32"/>
-      <c r="AR28" s="32"/>
-      <c r="AS28" s="32"/>
-      <c r="AT28" s="32"/>
-      <c r="AU28" s="32"/>
-      <c r="AV28" s="32"/>
-      <c r="AW28" s="32"/>
-      <c r="AX28" s="32"/>
-      <c r="AY28" s="32"/>
+      <c r="AM28" s="37"/>
+      <c r="AN28" s="37"/>
+      <c r="AO28" s="37"/>
+      <c r="AP28" s="37"/>
+      <c r="AQ28" s="37"/>
+      <c r="AR28" s="37"/>
+      <c r="AS28" s="37"/>
+      <c r="AT28" s="37"/>
+      <c r="AU28" s="37"/>
+      <c r="AV28" s="37"/>
+      <c r="AW28" s="37"/>
+      <c r="AX28" s="37"/>
+      <c r="AY28" s="37"/>
       <c r="AZ28" s="8" t="s">
         <v>78</v>
       </c>
@@ -3490,11 +3602,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="T3:AA3"/>
-    <mergeCell ref="AB24:AE24"/>
-    <mergeCell ref="AG24:AJ24"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="AD18:AQ18"/>
+    <mergeCell ref="AL24:AY24"/>
     <mergeCell ref="AB28:AE28"/>
     <mergeCell ref="AG28:AJ28"/>
     <mergeCell ref="AL28:AY28"/>
@@ -3503,18 +3615,18 @@
     <mergeCell ref="W11:AJ11"/>
     <mergeCell ref="S24:Z24"/>
     <mergeCell ref="S28:Z28"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="AD18:AQ18"/>
-    <mergeCell ref="AL24:AY24"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="T3:AA3"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AG24:AJ24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E9:M15"/>
   <sheetViews>
@@ -3525,16 +3637,16 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="9" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="35"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34"/>
       <c r="M9" s="8" t="s">
         <v>78</v>
       </c>
@@ -3569,12 +3681,12 @@
       </c>
     </row>
     <row r="14" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
       <c r="I14" s="8" t="s">
         <v>78</v>
       </c>
@@ -3607,12 +3719,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3636,7 +3748,7 @@
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="27" t="s">
         <v>128</v>
       </c>
       <c r="D6" t="s">
@@ -3692,7 +3804,7 @@
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="27" t="s">
         <v>139</v>
       </c>
       <c r="D12" t="s">
@@ -3720,7 +3832,7 @@
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="27" t="s">
         <v>160</v>
       </c>
       <c r="D15" t="s">
@@ -3748,7 +3860,7 @@
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="27" t="s">
         <v>62</v>
       </c>
       <c r="D18" t="s">
